--- a/Excel_profile_templates/Profile Template - CC Observation.xlsx
+++ b/Excel_profile_templates/Profile Template - CC Observation.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="175">
   <si>
     <t>Select</t>
   </si>
@@ -96,7 +96,7 @@
   </si>
   <si>
     <t>Language of the resource content
-Binding (extensible): A human language. ( http://hl7.org/fhir/stu3/valueset-languages.html )</t>
+Binding (extensible): A human language. [Common Languages](http://hl7.org/fhir/stu3/valueset-languages.html)</t>
   </si>
   <si>
     <t>- text</t>
@@ -144,7 +144,7 @@
   </si>
   <si>
     <t>usual : official : temp : secondary (If known)
-Binding (required): Identifies the purpose for this identifier, if known . ( http://hl7.org/fhir/stu3/valueset-identifier-use.html )</t>
+Binding (required): Identifies the purpose for this identifier, if known. [IdentifierUse](http://hl7.org/fhir/stu3/valueset-identifier-use.html)</t>
   </si>
   <si>
     <t>- - type</t>
@@ -154,7 +154,7 @@
   </si>
   <si>
     <t>Description of identifier
-Binding (extensible): A coded type for an identifier that can be used to determine which identifier to use for a specific purpose. ( http://hl7.org/fhir/stu3/valueset-identifier-type.html )</t>
+Binding (extensible): A coded type for an identifier that can be used to determine which identifier to use for a specific purpose. [Identifier Type Codes](http://hl7.org/fhir/stu3/valueset-identifier-type.html)</t>
   </si>
   <si>
     <t>- - - coding</t>
@@ -293,14 +293,14 @@
   </si>
   <si>
     <t>registered : preliminary : final : amended +
-Binding (required): Codes providing the status of an observation. ( http://hl7.org/fhir/stu3/valueset-observation-status.html )</t>
+Binding (required): Codes providing the status of an observation. [ObservationStatus](http://hl7.org/fhir/stu3/valueset-observation-status.html)</t>
   </si>
   <si>
     <t>- category</t>
   </si>
   <si>
     <t>Classification of type of observation
-Binding (preferred): Codes for high level observation categories. ( http://hl7.org/fhir/stu3/valueset-observation-category.html )</t>
+Binding (preferred): Codes for high level observation categories. [Observation Category Codes](http://hl7.org/fhir/stu3/valueset-observation-category.html)</t>
   </si>
   <si>
     <t>- - coding</t>
@@ -325,7 +325,7 @@
   </si>
   <si>
     <t>Type of observation (code / type)
-Binding (example): Codes identifying names of simple observations. ( http://hl7.org/fhir/stu3/valueset-observation-codes.html )</t>
+Binding (example): Codes identifying names of simple observations. [LOINC Codes](http://hl7.org/fhir/stu3/valueset-observation-codes.html)</t>
   </si>
   <si>
     <t>Code defined by a terminology system
@@ -336,7 +336,7 @@
   </si>
   <si>
     <t>Code defined by a terminology system
-Binding (extensible): A code from the SNOMED Clinical Terminology UK coding system describing a type of observation ( https://fhir.hl7.org.uk/STU3/ValueSet/CareConnect-ObservationType-1 )</t>
+Binding (extensible): A code from the SNOMED Clinical Terminology UK coding system describing a type of observation [CareConnect-ObservationType-1](https://fhir.hl7.org.uk/STU3/ValueSet/CareConnect-ObservationType-1)</t>
   </si>
   <si>
     <t>- - - extension (snomedCTDescriptionID)</t>
@@ -348,7 +348,7 @@
   </si>
   <si>
     <t>Identity of the terminology system
-Fixed Value: http://snomed.info/sct</t>
+&lt;font color='red'&gt;The value attribute of the profile element MUST contain the value 'http://snomed.info/sct'&lt;/font&gt;</t>
   </si>
   <si>
     <t>- subject</t>
@@ -368,9 +368,6 @@
     <t>- effective[x]</t>
   </si>
   <si>
-    <t>dateTime | Period</t>
-  </si>
-  <si>
     <t>Clinically relevant time/time-period for observation</t>
   </si>
   <si>
@@ -393,9 +390,6 @@
     <t>- value[x]</t>
   </si>
   <si>
-    <t>Quantity | CodeableConcept |String | Boolean | Range |Ratio | SampledData |Attachment | Time | dateTime |Period</t>
-  </si>
-  <si>
     <t>Actual result
 Constraint (qty-3): If a code for the unit is present, the system SHALL also be present</t>
   </si>
@@ -404,14 +398,14 @@
   </si>
   <si>
     <t>Why the result is missing
-Binding (extensible): Codes specifying why the result (Observation.value[x]) is missing. (http://hl7.org/fhir/stu3/valueset-observation-valueabsentreason.html )</t>
+Binding (extensible): Codes specifying why the result (Observation.value[x]) is missing. [Observation Value Absent Reason](http://hl7.org/fhir/stu3/valueset-observation-valueabsentreason.html)</t>
   </si>
   <si>
     <t>- interpretation</t>
   </si>
   <si>
     <t>High, low, normal, etc.
-Binding (extensible): Codes identifying interpretations of observations. ( http://hl7.org/fhir/stu3/valueset-observation-interpretation.html )</t>
+Binding (extensible): Codes identifying interpretations of observations. [Observation Interpretation Codes](http://hl7.org/fhir/stu3/valueset-observation-interpretation.html)</t>
   </si>
   <si>
     <t>- comment</t>
@@ -424,18 +418,18 @@
   </si>
   <si>
     <t>Observed body part
-Binding (example): Codes describing anatomical locations. May include laterality. (http://hl7.org/fhir/stu3/valueset-body-site.html )</t>
+Binding (example): Codes describing anatomical locations. May include laterality. [SNOMED CT Body Structures](http://hl7.org/fhir/stu3/valueset-body-site.html)</t>
   </si>
   <si>
     <t>- method</t>
   </si>
   <si>
     <t>How it was done
-Binding (example): Methods for simple observations. ( http://hl7.org/fhir/stu3/valueset-observation-methods.html )</t>
+Binding (example): Methods for simple observations. [Observation Methods](http://hl7.org/fhir/stu3/valueset-observation-methods.html)</t>
   </si>
   <si>
     <t>Code defined by a terminology system
-Binding (preferred): A code from SNOMED Clinical Terminology UK (https://fhir.hl7.org.uk/STU3/ValueSet/CareConnect-ObservationMethod-1 )</t>
+Binding (preferred): A code from SNOMED Clinical Terminology UK [CareConnect-ObservationMethod-1](https://fhir.hl7.org.uk/STU3/ValueSet/CareConnect-ObservationMethod-1)</t>
   </si>
   <si>
     <t>- specimen</t>
@@ -470,9 +464,6 @@
   </si>
   <si>
     <t>- - low</t>
-  </si>
-  <si>
-    <t>Quantity ( SimpleQuantity )</t>
   </si>
   <si>
     <t>Low Range, if relevant
@@ -510,14 +501,14 @@
   </si>
   <si>
     <t>Reference range qualifier
-Binding (extensible): Code for the meaning of a reference range. ( http://hl7.org/fhir/stu3/valueset-referencerange-meaning.html )</t>
+Binding (extensible): Code for the meaning of a reference range. [Observation Reference Range Meaning Codes](http://hl7.org/fhir/stu3/valueset-referencerange-meaning.html)</t>
   </si>
   <si>
     <t>- - appliesTo</t>
   </si>
   <si>
     <t>Reference range population
-Binding (example): Codes identifying the population the reference range applies to. (http://hl7.org/fhir/stu3/valueset-referencerange-appliesto.html )</t>
+Binding (example): Codes identifying the population the reference range applies to. [Observation Reference Range Applies To Codes](http://hl7.org/fhir/stu3/valueset-referencerange-appliesto.html )</t>
   </si>
   <si>
     <t>- - age</t>
@@ -562,7 +553,7 @@
   </si>
   <si>
     <t>has-member : derived-from : sequel-to : replaces : qualified-by : interfered-by
-Binding (required): Codes specifying how two observations are related. ( http://hl7.org/fhir/stu3/valueset-observation-relationshiptypes.html )</t>
+Binding (required): Codes specifying how two observations are related. [ObservationRelationshipType](http://hl7.org/fhir/stu3/valueset-observation-relationshiptypes.html)</t>
   </si>
   <si>
     <t>- - target</t>
@@ -582,10 +573,7 @@
   </si>
   <si>
     <t>Type of component observation (code / type)
-Binding (example): Codes identifying names of simple observations. ( http://hl7.org/fhir/stu3/valueset-observation-codes.html )</t>
-  </si>
-  <si>
-    <t>Quantity | CodeableConcept |String | Range | Ratio |SampledData | Attachment |Time | dateTime | Period</t>
+Binding (example): Codes identifying names of simple observations. [LOINC Codes](http://hl7.org/fhir/stu3/valueset-observation-codes.html)</t>
   </si>
   <si>
     <t>Actual component result
@@ -593,7 +581,7 @@
   </si>
   <si>
     <t>Why the component result is missing
-Binding (extensible): Codes specifying why the result (Observation.value[x]) is missing. (http://hl7.org/fhir/stu3/valueset-observation-valueabsentreason.html )</t>
+Binding (extensible): Codes specifying why the result (Observation.value[x]) is missing. [Observation Value Absent Reason](http://hl7.org/fhir/stu3/valueset-observation-valueabsentreason.html)</t>
   </si>
   <si>
     <t>see Observation.referenceRange</t>
@@ -654,10 +642,9 @@
     </font>
     <font>
       <b/>
-      <u/>
       <sz val="8.0"/>
       <color rgb="FF474747"/>
-      <name val="&quot;Helvetica Neue&quot;"/>
+      <name val="Helvetica Neue"/>
     </font>
     <font>
       <u/>
@@ -678,6 +665,7 @@
       <name val="Arial"/>
     </font>
     <font>
+      <u/>
       <sz val="8.0"/>
       <color rgb="FF005EB8"/>
       <name val="&quot;Helvetica Neue&quot;"/>
@@ -703,7 +691,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -743,8 +731,8 @@
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -753,6 +741,9 @@
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -980,7 +971,7 @@
       <c r="D11" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="13" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1469,7 +1460,7 @@
       <c r="D42" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E42" s="13" t="s">
+      <c r="E42" s="9" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1605,7 +1596,7 @@
       <c r="D50" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E50" s="13" t="s">
+      <c r="E50" s="9" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1639,7 +1630,7 @@
       <c r="D52" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E52" s="13" t="s">
+      <c r="E52" s="9" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1674,7 +1665,7 @@
       <c r="D54" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E54" s="9" t="s">
+      <c r="E54" s="17" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1966,59 +1957,58 @@
       <c r="C73" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D73" s="17" t="s">
+      <c r="D73" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E73" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="E73" s="9" t="s">
-        <v>111</v>
-      </c>
     </row>
     <row r="74">
-      <c r="A74" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="A74" s="10"/>
+      <c r="B74" s="7"/>
       <c r="C74" s="11" t="s">
         <v>0</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>114</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="E74" s="9"/>
     </row>
     <row r="75">
       <c r="A75" s="10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B75" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B76" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C75" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D75" s="14" t="str">
+      <c r="C76" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D76" s="14" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
         <v>Reference</v>
       </c>
-      <c r="E75" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="10"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D76" s="15" t="str">
-        <f>HYPERLINK("http://hl7.org/fhir/stu3/StructureDefinition/RelatedPerson","RelatedPerson")</f>
-        <v>RelatedPerson</v>
-      </c>
-      <c r="E76" s="9"/>
+      <c r="E76" s="9" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="10"/>
@@ -2027,8 +2017,8 @@
         <v>0</v>
       </c>
       <c r="D77" s="15" t="str">
-        <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Patient-1","CareConnect-Patient-1")</f>
-        <v>CareConnect-Patient-1</v>
+        <f>HYPERLINK("http://hl7.org/fhir/stu3/StructureDefinition/RelatedPerson","RelatedPerson")</f>
+        <v>RelatedPerson</v>
       </c>
       <c r="E77" s="9"/>
     </row>
@@ -2039,8 +2029,8 @@
         <v>0</v>
       </c>
       <c r="D78" s="15" t="str">
-        <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Organization-1","CareConnect-Organization-1")</f>
-        <v>CareConnect-Organization-1</v>
+        <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Patient-1","CareConnect-Patient-1")</f>
+        <v>CareConnect-Patient-1</v>
       </c>
       <c r="E78" s="9"/>
     </row>
@@ -2051,31 +2041,26 @@
         <v>0</v>
       </c>
       <c r="D79" s="15" t="str">
+        <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Organization-1","CareConnect-Organization-1")</f>
+        <v>CareConnect-Organization-1</v>
+      </c>
+      <c r="E79" s="9"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="10"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D80" s="15" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Practitioner-1","CareConnect-Practitioner-1")</f>
         <v>CareConnect-Practitioner-1</v>
       </c>
-      <c r="E79" s="9"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C80" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D80" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E80" s="9" t="s">
-        <v>77</v>
-      </c>
+      <c r="E80" s="9"/>
     </row>
     <row r="81">
       <c r="A81" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>14</v>
@@ -2084,15 +2069,15 @@
         <v>0</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>14</v>
@@ -2101,15 +2086,15 @@
         <v>0</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="10" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>14</v>
@@ -2117,16 +2102,16 @@
       <c r="C83" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D83" s="17" t="s">
-        <v>118</v>
+      <c r="D83" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>14</v>
@@ -2134,186 +2119,132 @@
       <c r="C84" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D84" s="12" t="s">
+      <c r="D84" s="18" t="str">
+        <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#quantity","Quantity")</f>
+        <v>Quantity</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="10"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D85" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E84" s="13" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C85" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D85" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E85" s="9" t="s">
-        <v>46</v>
-      </c>
+      <c r="E85" s="9"/>
     </row>
     <row r="86">
-      <c r="A86" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="A86" s="10"/>
+      <c r="B86" s="7"/>
       <c r="C86" s="11" t="s">
         <v>0</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E86" s="9" t="s">
-        <v>48</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E86" s="9"/>
     </row>
     <row r="87">
-      <c r="A87" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="A87" s="10"/>
+      <c r="B87" s="7"/>
       <c r="C87" s="11" t="s">
         <v>0</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E87" s="9" t="s">
-        <v>51</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="E87" s="9"/>
     </row>
     <row r="88">
-      <c r="A88" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="A88" s="10"/>
+      <c r="B88" s="7"/>
       <c r="C88" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D88" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E88" s="9" t="s">
-        <v>53</v>
-      </c>
+      <c r="D88" s="18" t="str">
+        <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#range","Range")</f>
+        <v>Range</v>
+      </c>
+      <c r="E88" s="9"/>
     </row>
     <row r="89">
-      <c r="A89" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B89" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="A89" s="10"/>
+      <c r="B89" s="7"/>
       <c r="C89" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D89" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E89" s="9" t="s">
-        <v>55</v>
-      </c>
+      <c r="D89" s="18" t="str">
+        <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#ratio","Ratio")</f>
+        <v>Ratio</v>
+      </c>
+      <c r="E89" s="9"/>
     </row>
     <row r="90">
-      <c r="A90" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="A90" s="10"/>
+      <c r="B90" s="7"/>
       <c r="C90" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D90" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E90" s="9" t="s">
-        <v>58</v>
-      </c>
+      <c r="D90" s="18" t="str">
+        <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#sampleddata","SampledData")</f>
+        <v>SampledData</v>
+      </c>
+      <c r="E90" s="9"/>
     </row>
     <row r="91">
-      <c r="A91" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="A91" s="10"/>
+      <c r="B91" s="7"/>
       <c r="C91" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D91" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E91" s="9" t="s">
-        <v>60</v>
-      </c>
+      <c r="D91" s="18" t="str">
+        <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#attachment","Attachment")</f>
+        <v>Attachment</v>
+      </c>
+      <c r="E91" s="9"/>
     </row>
     <row r="92">
-      <c r="A92" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="A92" s="10"/>
+      <c r="B92" s="7"/>
       <c r="C92" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D92" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E92" s="13" t="s">
-        <v>123</v>
-      </c>
+      <c r="D92" s="18" t="str">
+        <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#time","Time")</f>
+        <v>Time</v>
+      </c>
+      <c r="E92" s="9"/>
     </row>
     <row r="93">
-      <c r="A93" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>30</v>
-      </c>
+      <c r="A93" s="10"/>
+      <c r="B93" s="7"/>
       <c r="C93" s="11" t="s">
         <v>0</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E93" s="9" t="s">
-        <v>46</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="E93" s="9"/>
     </row>
     <row r="94">
-      <c r="A94" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="A94" s="10"/>
+      <c r="B94" s="7"/>
       <c r="C94" s="11" t="s">
         <v>0</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E94" s="9" t="s">
-        <v>48</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="E94" s="9"/>
     </row>
     <row r="95">
       <c r="A95" s="10" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>14</v>
@@ -2322,32 +2253,32 @@
         <v>0</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C96" s="11" t="s">
         <v>0</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="10" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>14</v>
@@ -2356,15 +2287,15 @@
         <v>0</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>14</v>
@@ -2373,15 +2304,15 @@
         <v>0</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B99" s="7" t="s">
         <v>14</v>
@@ -2390,15 +2321,15 @@
         <v>0</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="10" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="B100" s="7" t="s">
         <v>14</v>
@@ -2410,12 +2341,12 @@
         <v>50</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>125</v>
+        <v>55</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="10" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="B101" s="7" t="s">
         <v>14</v>
@@ -2424,32 +2355,32 @@
         <v>0</v>
       </c>
       <c r="D101" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E101" s="13" t="s">
-        <v>127</v>
+        <v>57</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="10" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C102" s="11" t="s">
         <v>0</v>
       </c>
       <c r="D102" s="12" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="10" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="B103" s="7" t="s">
         <v>14</v>
@@ -2458,28 +2389,27 @@
         <v>0</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>46</v>
+        <v>121</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="10" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C104" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D104" s="12" t="str">
-        <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-coding-sctdescid","Extension-coding-sctdescid")</f>
-        <v>Extension-coding-sctdescid</v>
-      </c>
-      <c r="E104" s="16" t="s">
-        <v>103</v>
+      <c r="D104" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="105">
@@ -2487,7 +2417,7 @@
         <v>92</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="C105" s="11" t="s">
         <v>0</v>
@@ -2496,46 +2426,46 @@
         <v>21</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>104</v>
+        <v>48</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="C106" s="11" t="s">
         <v>0</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="10" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="C107" s="11" t="s">
         <v>0</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="10" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B108" s="7" t="s">
         <v>14</v>
@@ -2544,15 +2474,15 @@
         <v>0</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B109" s="7" t="s">
         <v>14</v>
@@ -2561,15 +2491,15 @@
         <v>0</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="10" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="B110" s="7" t="s">
         <v>14</v>
@@ -2578,32 +2508,32 @@
         <v>0</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E110" s="13" t="s">
-        <v>129</v>
+        <v>50</v>
+      </c>
+      <c r="E110" s="9" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="10" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C111" s="11" t="s">
         <v>0</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="10" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="B112" s="7" t="s">
         <v>14</v>
@@ -2612,67 +2542,67 @@
         <v>0</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E112" s="13" t="s">
-        <v>130</v>
+        <v>42</v>
+      </c>
+      <c r="E112" s="9" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D113" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E113" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C114" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D114" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E114" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B113" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C113" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D113" s="12" t="str">
+      <c r="B115" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D115" s="12" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-coding-sctdescid","Extension-coding-sctdescid")</f>
         <v>Extension-coding-sctdescid</v>
       </c>
-      <c r="E113" s="16" t="s">
+      <c r="E115" s="16" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B114" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C114" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D114" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E114" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B115" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C115" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D115" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E115" s="9" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="10" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="B116" s="7" t="s">
         <v>62</v>
@@ -2681,35 +2611,35 @@
         <v>0</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E116" s="9" t="s">
-        <v>55</v>
+        <v>21</v>
+      </c>
+      <c r="E116" s="17" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="C117" s="11" t="s">
         <v>0</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="10" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="C118" s="11" t="s">
         <v>0</v>
@@ -2718,12 +2648,12 @@
         <v>50</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="10" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="B119" s="7" t="s">
         <v>14</v>
@@ -2731,309 +2661,310 @@
       <c r="C119" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D119" s="14" t="str">
+      <c r="D119" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E119" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D120" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E120" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D121" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E121" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C122" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D122" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E122" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C123" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D123" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E123" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C124" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D124" s="12" t="str">
+        <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-coding-sctdescid","Extension-coding-sctdescid")</f>
+        <v>Extension-coding-sctdescid</v>
+      </c>
+      <c r="E124" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C125" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D125" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E125" s="17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C126" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D126" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E126" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C127" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D127" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E127" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C128" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D128" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E128" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C129" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D129" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E129" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C130" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D130" s="14" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
         <v>Reference</v>
       </c>
-      <c r="E119" s="9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="10"/>
-      <c r="B120" s="7"/>
-      <c r="C120" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D120" s="12" t="str">
+      <c r="E130" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="10"/>
+      <c r="B131" s="7"/>
+      <c r="C131" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D131" s="12" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/StructureDefinition/Specimen","Specimen")</f>
         <v>Specimen</v>
       </c>
-      <c r="E120" s="9"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="10" t="s">
+      <c r="E131" s="9"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B121" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C121" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D121" s="12" t="s">
+      <c r="B132" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C132" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D132" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E121" s="9" t="s">
+      <c r="E132" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="10" t="s">
+    <row r="133">
+      <c r="A133" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B122" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C122" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D122" s="12" t="s">
+      <c r="B133" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C133" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D133" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E122" s="9" t="s">
+      <c r="E133" s="9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="10" t="s">
+    <row r="134">
+      <c r="A134" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B123" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C123" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D123" s="12" t="s">
+      <c r="B134" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C134" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D134" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E123" s="9" t="s">
+      <c r="E134" s="9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="B124" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C124" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D124" s="14" t="str">
+    <row r="135">
+      <c r="A135" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C135" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D135" s="14" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
         <v>Reference</v>
       </c>
-      <c r="E124" s="9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="10"/>
-      <c r="B125" s="7"/>
-      <c r="C125" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D125" s="12" t="str">
+      <c r="E135" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="10"/>
+      <c r="B136" s="7"/>
+      <c r="C136" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D136" s="12" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/StructureDefinition/Device","Device")</f>
         <v>Device</v>
       </c>
-      <c r="E125" s="9"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="10"/>
-      <c r="B126" s="7"/>
-      <c r="C126" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D126" s="12" t="str">
+      <c r="E136" s="9"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="10"/>
+      <c r="B137" s="7"/>
+      <c r="C137" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D137" s="12" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/StructureDefinition/DeviceMetric","DeviceMetric")</f>
         <v>DeviceMetric</v>
       </c>
-      <c r="E126" s="9"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B127" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C127" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D127" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E127" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B128" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C128" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D128" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E128" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B129" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C129" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D129" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E129" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B130" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C130" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D130" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="E130" s="9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="B131" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C131" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D131" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E131" s="9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B132" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C132" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D132" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="E132" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="B133" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C133" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D133" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="E133" s="9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="B134" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C134" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D134" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E134" s="9" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B135" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C135" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D135" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E135" s="9" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B136" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C136" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D136" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E136" s="9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="B137" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C137" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D137" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="E137" s="9" t="s">
-        <v>151</v>
-      </c>
+      <c r="E137" s="9"/>
     </row>
     <row r="138">
       <c r="A138" s="10" t="s">
-        <v>143</v>
+        <v>84</v>
       </c>
       <c r="B138" s="7" t="s">
         <v>14</v>
@@ -3042,15 +2973,15 @@
         <v>0</v>
       </c>
       <c r="D138" s="12" t="s">
-        <v>144</v>
+        <v>50</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>145</v>
+        <v>77</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="10" t="s">
-        <v>146</v>
+        <v>85</v>
       </c>
       <c r="B139" s="7" t="s">
         <v>14</v>
@@ -3059,15 +2990,15 @@
         <v>0</v>
       </c>
       <c r="D139" s="12" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>147</v>
+        <v>79</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="10" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B140" s="7" t="s">
         <v>14</v>
@@ -3076,66 +3007,67 @@
         <v>0</v>
       </c>
       <c r="D140" s="12" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>148</v>
+        <v>81</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="10" t="s">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C141" s="11" t="s">
         <v>0</v>
       </c>
       <c r="D141" s="12" t="s">
-        <v>24</v>
+        <v>134</v>
       </c>
       <c r="E141" s="9" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="10" t="s">
-        <v>41</v>
+        <v>136</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C142" s="11" t="s">
         <v>0</v>
       </c>
       <c r="D142" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E142" s="13" t="s">
-        <v>152</v>
+        <v>34</v>
+      </c>
+      <c r="E142" s="9" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="10" t="s">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C143" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D143" s="12" t="s">
-        <v>45</v>
+      <c r="D143" s="18" t="str">
+        <f>HYPERLINK("http://hl7.org/fhir/stu3/StructureDefinition/SimpleQuantity","Quantity ( SimpleQuantity )")</f>
+        <v>Quantity ( SimpleQuantity )</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>46</v>
+        <v>139</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="10" t="s">
-        <v>47</v>
+        <v>140</v>
       </c>
       <c r="B144" s="7" t="s">
         <v>14</v>
@@ -3144,15 +3076,15 @@
         <v>0</v>
       </c>
       <c r="D144" s="12" t="s">
-        <v>21</v>
+        <v>141</v>
       </c>
       <c r="E144" s="9" t="s">
-        <v>48</v>
+        <v>142</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="10" t="s">
-        <v>49</v>
+        <v>143</v>
       </c>
       <c r="B145" s="7" t="s">
         <v>14</v>
@@ -3164,12 +3096,12 @@
         <v>50</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>51</v>
+        <v>144</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="10" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="B146" s="7" t="s">
         <v>14</v>
@@ -3178,15 +3110,15 @@
         <v>0</v>
       </c>
       <c r="D146" s="12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E146" s="9" t="s">
-        <v>53</v>
+        <v>145</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="10" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="B147" s="7" t="s">
         <v>14</v>
@@ -3195,15 +3127,15 @@
         <v>0</v>
       </c>
       <c r="D147" s="12" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E147" s="9" t="s">
-        <v>55</v>
+        <v>146</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="10" t="s">
-        <v>56</v>
+        <v>147</v>
       </c>
       <c r="B148" s="7" t="s">
         <v>14</v>
@@ -3211,16 +3143,17 @@
       <c r="C148" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D148" s="12" t="s">
-        <v>57</v>
+      <c r="D148" s="18" t="str">
+        <f>HYPERLINK("http://hl7.org/fhir/stu3/StructureDefinition/SimpleQuantity","Quantity ( SimpleQuantity )")</f>
+        <v>Quantity ( SimpleQuantity )</v>
       </c>
       <c r="E148" s="9" t="s">
-        <v>58</v>
+        <v>148</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="10" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="B149" s="7" t="s">
         <v>14</v>
@@ -3229,49 +3162,49 @@
         <v>0</v>
       </c>
       <c r="D149" s="12" t="s">
-        <v>50</v>
+        <v>141</v>
       </c>
       <c r="E149" s="9" t="s">
-        <v>60</v>
+        <v>142</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="10" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C150" s="11" t="s">
         <v>0</v>
       </c>
       <c r="D150" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E150" s="13" t="s">
-        <v>154</v>
+        <v>50</v>
+      </c>
+      <c r="E150" s="9" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="10" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C151" s="11" t="s">
         <v>0</v>
       </c>
       <c r="D151" s="12" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="E151" s="9" t="s">
-        <v>46</v>
+        <v>145</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="10" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="B152" s="7" t="s">
         <v>14</v>
@@ -3280,15 +3213,15 @@
         <v>0</v>
       </c>
       <c r="D152" s="12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E152" s="9" t="s">
-        <v>48</v>
+        <v>146</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="10" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B153" s="7" t="s">
         <v>14</v>
@@ -3297,32 +3230,32 @@
         <v>0</v>
       </c>
       <c r="D153" s="12" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E153" s="9" t="s">
-        <v>51</v>
+        <v>149</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="10" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C154" s="11" t="s">
         <v>0</v>
       </c>
       <c r="D154" s="12" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E154" s="9" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="10" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B155" s="7" t="s">
         <v>14</v>
@@ -3331,15 +3264,15 @@
         <v>0</v>
       </c>
       <c r="D155" s="12" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="E155" s="9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="10" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B156" s="7" t="s">
         <v>14</v>
@@ -3348,15 +3281,15 @@
         <v>0</v>
       </c>
       <c r="D156" s="12" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E156" s="9" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="10" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B157" s="7" t="s">
         <v>14</v>
@@ -3365,15 +3298,15 @@
         <v>0</v>
       </c>
       <c r="D157" s="12" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E157" s="9" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="10" t="s">
-        <v>155</v>
+        <v>54</v>
       </c>
       <c r="B158" s="7" t="s">
         <v>14</v>
@@ -3382,15 +3315,15 @@
         <v>0</v>
       </c>
       <c r="D158" s="12" t="s">
-        <v>156</v>
+        <v>50</v>
       </c>
       <c r="E158" s="9" t="s">
-        <v>157</v>
+        <v>55</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="10" t="s">
-        <v>158</v>
+        <v>56</v>
       </c>
       <c r="B159" s="7" t="s">
         <v>14</v>
@@ -3398,16 +3331,16 @@
       <c r="C159" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D159" s="17" t="s">
-        <v>141</v>
+      <c r="D159" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="E159" s="9" t="s">
-        <v>159</v>
+        <v>58</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="10" t="s">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="B160" s="7" t="s">
         <v>14</v>
@@ -3416,49 +3349,49 @@
         <v>0</v>
       </c>
       <c r="D160" s="12" t="s">
-        <v>144</v>
+        <v>50</v>
       </c>
       <c r="E160" s="9" t="s">
-        <v>145</v>
+        <v>60</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="10" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C161" s="11" t="s">
         <v>0</v>
       </c>
       <c r="D161" s="12" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E161" s="9" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C162" s="11" t="s">
         <v>0</v>
       </c>
       <c r="D162" s="12" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="E162" s="9" t="s">
-        <v>148</v>
+        <v>46</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B163" s="7" t="s">
         <v>14</v>
@@ -3467,15 +3400,15 @@
         <v>0</v>
       </c>
       <c r="D163" s="12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E163" s="9" t="s">
-        <v>149</v>
+        <v>48</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="10" t="s">
-        <v>162</v>
+        <v>49</v>
       </c>
       <c r="B164" s="7" t="s">
         <v>14</v>
@@ -3483,16 +3416,16 @@
       <c r="C164" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D164" s="17" t="s">
-        <v>141</v>
+      <c r="D164" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="E164" s="9" t="s">
-        <v>163</v>
+        <v>51</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="10" t="s">
-        <v>160</v>
+        <v>52</v>
       </c>
       <c r="B165" s="7" t="s">
         <v>14</v>
@@ -3501,15 +3434,15 @@
         <v>0</v>
       </c>
       <c r="D165" s="12" t="s">
-        <v>144</v>
+        <v>24</v>
       </c>
       <c r="E165" s="9" t="s">
-        <v>145</v>
+        <v>53</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="10" t="s">
-        <v>161</v>
+        <v>54</v>
       </c>
       <c r="B166" s="7" t="s">
         <v>14</v>
@@ -3521,12 +3454,12 @@
         <v>50</v>
       </c>
       <c r="E166" s="9" t="s">
-        <v>147</v>
+        <v>55</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="10" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B167" s="7" t="s">
         <v>14</v>
@@ -3535,15 +3468,15 @@
         <v>0</v>
       </c>
       <c r="D167" s="12" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="E167" s="9" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="10" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B168" s="7" t="s">
         <v>14</v>
@@ -3552,15 +3485,15 @@
         <v>0</v>
       </c>
       <c r="D168" s="12" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="E168" s="9" t="s">
-        <v>149</v>
+        <v>60</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="10" t="s">
-        <v>96</v>
+        <v>152</v>
       </c>
       <c r="B169" s="7" t="s">
         <v>14</v>
@@ -3569,49 +3502,50 @@
         <v>0</v>
       </c>
       <c r="D169" s="12" t="s">
-        <v>50</v>
+        <v>153</v>
       </c>
       <c r="E169" s="9" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="10" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C170" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D170" s="12" t="s">
-        <v>136</v>
+      <c r="D170" s="18" t="str">
+        <f>HYPERLINK("http://hl7.org/fhir/stu3/StructureDefinition/SimpleQuantity","Quantity ( SimpleQuantity )")</f>
+        <v>Quantity ( SimpleQuantity )</v>
       </c>
       <c r="E170" s="9" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="10" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C171" s="11" t="s">
         <v>0</v>
       </c>
       <c r="D171" s="12" t="s">
-        <v>34</v>
+        <v>141</v>
       </c>
       <c r="E171" s="9" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="10" t="s">
-        <v>41</v>
+        <v>158</v>
       </c>
       <c r="B172" s="7" t="s">
         <v>14</v>
@@ -3620,447 +3554,448 @@
         <v>0</v>
       </c>
       <c r="D172" s="12" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="E172" s="9" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="10" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
       <c r="B173" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C173" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D173" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E173" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C174" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D174" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E174" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C175" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D175" s="18" t="str">
+        <f>HYPERLINK("http://hl7.org/fhir/stu3/StructureDefinition/SimpleQuantity","Quantity ( SimpleQuantity )")</f>
+        <v>Quantity ( SimpleQuantity )</v>
+      </c>
+      <c r="E175" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B176" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C176" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D176" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="E176" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B177" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C177" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D177" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E177" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C178" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D178" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E178" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B179" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C179" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D179" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E179" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B180" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C180" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D180" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E180" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B181" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C181" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D181" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="E181" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B182" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C182" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D182" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E182" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B183" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C183" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D183" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E183" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B184" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C173" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D173" s="14" t="str">
+      <c r="C184" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D184" s="14" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
         <v>Reference</v>
       </c>
-      <c r="E173" s="9" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="10"/>
-      <c r="B174" s="7"/>
-      <c r="C174" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D174" s="12" t="str">
+      <c r="E184" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="10"/>
+      <c r="B185" s="7"/>
+      <c r="C185" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D185" s="12" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/StructureDefinition/QuestionnaireResponse","QuestionnaireResponse")</f>
         <v>QuestionnaireResponse</v>
       </c>
-      <c r="E174" s="9"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="10"/>
-      <c r="B175" s="7"/>
-      <c r="C175" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D175" s="12" t="str">
+      <c r="E185" s="9"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="10"/>
+      <c r="B186" s="7"/>
+      <c r="C186" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D186" s="12" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/StructureDefinition/Sequence","Sequence")</f>
         <v>Sequence</v>
       </c>
-      <c r="E175" s="9"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="10"/>
-      <c r="B176" s="7"/>
-      <c r="C176" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D176" s="12" t="str">
+      <c r="E186" s="9"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="10"/>
+      <c r="B187" s="7"/>
+      <c r="C187" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D187" s="12" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Observation-1","CareConnect-Observation-1")</f>
         <v>CareConnect-Observation-1</v>
       </c>
-      <c r="E176" s="9"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="10" t="s">
+      <c r="E187" s="9"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B177" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C177" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D177" s="12" t="s">
+      <c r="B188" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C188" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D188" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E177" s="9" t="s">
+      <c r="E188" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" s="10" t="s">
+    <row r="189">
+      <c r="A189" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B178" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C178" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D178" s="12" t="s">
+      <c r="B189" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C189" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D189" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E178" s="9" t="s">
+      <c r="E189" s="9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" s="10" t="s">
+    <row r="190">
+      <c r="A190" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B179" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C179" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D179" s="12" t="s">
+      <c r="B190" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C190" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D190" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E179" s="9" t="s">
+      <c r="E190" s="9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" s="10" t="s">
+    <row r="191">
+      <c r="A191" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B191" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C191" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D191" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="E191" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B192" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C192" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D192" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E192" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B193" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C193" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D193" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E193" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="B180" s="7" t="s">
+    </row>
+    <row r="194">
+      <c r="A194" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B194" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C180" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D180" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="E180" s="9" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="B181" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C181" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D181" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E181" s="9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="B182" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C182" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D182" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E182" s="13" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B183" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C183" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D183" s="12" t="s">
+      <c r="C194" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D194" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E183" s="9" t="s">
+      <c r="E194" s="9" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" s="10" t="s">
+    <row r="195">
+      <c r="A195" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B184" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C184" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D184" s="12" t="s">
+      <c r="B195" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C195" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D195" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E184" s="13" t="s">
+      <c r="E195" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" s="10" t="s">
+    <row r="196">
+      <c r="A196" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B185" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C185" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D185" s="12" t="str">
+      <c r="B196" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C196" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D196" s="12" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-coding-sctdescid","Extension-coding-sctdescid")</f>
         <v>Extension-coding-sctdescid</v>
       </c>
-      <c r="E185" s="16" t="s">
+      <c r="E196" s="16" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B186" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C186" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D186" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E186" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B187" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C187" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D187" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E187" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B188" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C188" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D188" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E188" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B189" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C189" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D189" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E189" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B190" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C190" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D190" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E190" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B191" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C191" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D191" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="E191" s="9" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="B192" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C192" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D192" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E192" s="13" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B193" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C193" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D193" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E193" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B194" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C194" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D194" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E194" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B195" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C195" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D195" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E195" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B196" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C196" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D196" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E196" s="9" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="10" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="C197" s="11" t="s">
         <v>0</v>
       </c>
       <c r="D197" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E197" s="9" t="s">
-        <v>55</v>
+        <v>21</v>
+      </c>
+      <c r="E197" s="17" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="C198" s="11" t="s">
         <v>0</v>
       </c>
       <c r="D198" s="12" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="E198" s="9" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="10" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="C199" s="11" t="s">
         <v>0</v>
@@ -4069,12 +4004,12 @@
         <v>50</v>
       </c>
       <c r="E199" s="9" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="10" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="B200" s="7" t="s">
         <v>14</v>
@@ -4083,2604 +4018,2896 @@
         <v>0</v>
       </c>
       <c r="D200" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E200" s="13" t="s">
-        <v>123</v>
+        <v>57</v>
+      </c>
+      <c r="E200" s="9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="10" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C201" s="11" t="s">
         <v>0</v>
       </c>
       <c r="D201" s="12" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E201" s="9" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B202" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C202" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D202" s="18" t="str">
+        <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#quantity","Quantity")</f>
+        <v>Quantity</v>
+      </c>
+      <c r="E202" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="10"/>
+      <c r="B203" s="7"/>
+      <c r="C203" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D203" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E203" s="9"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="10"/>
+      <c r="B204" s="7"/>
+      <c r="C204" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D204" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E204" s="9"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="10"/>
+      <c r="B205" s="7"/>
+      <c r="C205" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D205" s="18" t="str">
+        <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#range","Range")</f>
+        <v>Range</v>
+      </c>
+      <c r="E205" s="9"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="10"/>
+      <c r="B206" s="7"/>
+      <c r="C206" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D206" s="18" t="str">
+        <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#ratio","Ratio")</f>
+        <v>Ratio</v>
+      </c>
+      <c r="E206" s="9"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="10"/>
+      <c r="B207" s="7"/>
+      <c r="C207" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D207" s="18" t="str">
+        <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#sampleddata","SampledData")</f>
+        <v>SampledData</v>
+      </c>
+      <c r="E207" s="9"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="10"/>
+      <c r="B208" s="7"/>
+      <c r="C208" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D208" s="18" t="str">
+        <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#attachment","Attachment")</f>
+        <v>Attachment</v>
+      </c>
+      <c r="E208" s="9"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="10"/>
+      <c r="B209" s="7"/>
+      <c r="C209" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D209" s="18" t="str">
+        <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#time","Time")</f>
+        <v>Time</v>
+      </c>
+      <c r="E209" s="9"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="10"/>
+      <c r="B210" s="7"/>
+      <c r="C210" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D210" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E210" s="9"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="10"/>
+      <c r="B211" s="7"/>
+      <c r="C211" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D211" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E211" s="9"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B212" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C212" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D212" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E212" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B213" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C213" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D213" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E213" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B202" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C202" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D202" s="12" t="s">
+      <c r="B214" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C214" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D214" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E202" s="9" t="s">
+      <c r="E214" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" s="10" t="s">
+    <row r="215">
+      <c r="A215" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B203" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C203" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D203" s="12" t="s">
+      <c r="B215" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C215" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D215" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E203" s="9" t="s">
+      <c r="E215" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" s="10" t="s">
+    <row r="216">
+      <c r="A216" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B204" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C204" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D204" s="12" t="s">
+      <c r="B216" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C216" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D216" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E204" s="9" t="s">
+      <c r="E216" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" s="10" t="s">
+    <row r="217">
+      <c r="A217" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B205" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C205" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D205" s="12" t="s">
+      <c r="B217" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C217" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D217" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E205" s="9" t="s">
+      <c r="E217" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" s="10" t="s">
+    <row r="218">
+      <c r="A218" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B206" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C206" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D206" s="12" t="s">
+      <c r="B218" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C218" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D218" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="E206" s="9" t="s">
+      <c r="E218" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" s="10" t="s">
+    <row r="219">
+      <c r="A219" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B207" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C207" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D207" s="12" t="s">
+      <c r="B219" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C219" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D219" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E207" s="9" t="s">
+      <c r="E219" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B208" s="7" t="s">
+    <row r="220">
+      <c r="A220" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B220" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C220" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D220" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E220" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B221" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C208" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D208" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E208" s="9" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="18"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="18"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="18"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="18"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="18"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="18"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="18"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="18"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="18"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="18"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="18"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="18"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="18"/>
+      <c r="C221" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D221" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E221" s="9" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="222">
-      <c r="A222" s="18"/>
+      <c r="A222" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B222" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C222" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D222" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E222" s="9" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="223">
-      <c r="A223" s="18"/>
+      <c r="A223" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B223" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C223" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D223" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E223" s="9" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="224">
-      <c r="A224" s="18"/>
+      <c r="A224" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B224" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C224" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D224" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E224" s="9" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="225">
-      <c r="A225" s="18"/>
+      <c r="A225" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B225" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C225" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D225" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E225" s="9" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="226">
-      <c r="A226" s="18"/>
+      <c r="A226" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B226" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C226" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D226" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E226" s="9" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="227">
-      <c r="A227" s="18"/>
+      <c r="A227" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B227" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C227" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D227" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E227" s="9" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="228">
-      <c r="A228" s="18"/>
+      <c r="A228" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B228" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C228" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D228" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="E228" s="9" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="229">
-      <c r="A229" s="18"/>
+      <c r="A229" s="19"/>
     </row>
     <row r="230">
-      <c r="A230" s="18"/>
+      <c r="A230" s="19"/>
     </row>
     <row r="231">
-      <c r="A231" s="18"/>
+      <c r="A231" s="19"/>
     </row>
     <row r="232">
-      <c r="A232" s="18"/>
+      <c r="A232" s="19"/>
     </row>
     <row r="233">
-      <c r="A233" s="18"/>
+      <c r="A233" s="19"/>
     </row>
     <row r="234">
-      <c r="A234" s="18"/>
+      <c r="A234" s="19"/>
     </row>
     <row r="235">
-      <c r="A235" s="18"/>
+      <c r="A235" s="19"/>
     </row>
     <row r="236">
-      <c r="A236" s="18"/>
+      <c r="A236" s="19"/>
     </row>
     <row r="237">
-      <c r="A237" s="18"/>
+      <c r="A237" s="19"/>
     </row>
     <row r="238">
-      <c r="A238" s="18"/>
+      <c r="A238" s="19"/>
     </row>
     <row r="239">
-      <c r="A239" s="18"/>
+      <c r="A239" s="19"/>
     </row>
     <row r="240">
-      <c r="A240" s="18"/>
+      <c r="A240" s="19"/>
     </row>
     <row r="241">
-      <c r="A241" s="18"/>
+      <c r="A241" s="19"/>
     </row>
     <row r="242">
-      <c r="A242" s="18"/>
+      <c r="A242" s="19"/>
     </row>
     <row r="243">
-      <c r="A243" s="18"/>
+      <c r="A243" s="19"/>
     </row>
     <row r="244">
-      <c r="A244" s="18"/>
+      <c r="A244" s="19"/>
     </row>
     <row r="245">
-      <c r="A245" s="18"/>
+      <c r="A245" s="19"/>
     </row>
     <row r="246">
-      <c r="A246" s="18"/>
+      <c r="A246" s="19"/>
     </row>
     <row r="247">
-      <c r="A247" s="18"/>
+      <c r="A247" s="19"/>
     </row>
     <row r="248">
-      <c r="A248" s="18"/>
+      <c r="A248" s="19"/>
     </row>
     <row r="249">
-      <c r="A249" s="18"/>
+      <c r="A249" s="19"/>
     </row>
     <row r="250">
-      <c r="A250" s="18"/>
+      <c r="A250" s="19"/>
     </row>
     <row r="251">
-      <c r="A251" s="18"/>
+      <c r="A251" s="19"/>
     </row>
     <row r="252">
-      <c r="A252" s="18"/>
+      <c r="A252" s="19"/>
     </row>
     <row r="253">
-      <c r="A253" s="18"/>
+      <c r="A253" s="19"/>
     </row>
     <row r="254">
-      <c r="A254" s="18"/>
+      <c r="A254" s="19"/>
     </row>
     <row r="255">
-      <c r="A255" s="18"/>
+      <c r="A255" s="19"/>
     </row>
     <row r="256">
-      <c r="A256" s="18"/>
+      <c r="A256" s="19"/>
     </row>
     <row r="257">
-      <c r="A257" s="18"/>
+      <c r="A257" s="19"/>
     </row>
     <row r="258">
-      <c r="A258" s="18"/>
+      <c r="A258" s="19"/>
     </row>
     <row r="259">
-      <c r="A259" s="18"/>
+      <c r="A259" s="19"/>
     </row>
     <row r="260">
-      <c r="A260" s="18"/>
+      <c r="A260" s="19"/>
     </row>
     <row r="261">
-      <c r="A261" s="18"/>
+      <c r="A261" s="19"/>
     </row>
     <row r="262">
-      <c r="A262" s="18"/>
+      <c r="A262" s="19"/>
     </row>
     <row r="263">
-      <c r="A263" s="18"/>
+      <c r="A263" s="19"/>
     </row>
     <row r="264">
-      <c r="A264" s="18"/>
+      <c r="A264" s="19"/>
     </row>
     <row r="265">
-      <c r="A265" s="18"/>
+      <c r="A265" s="19"/>
     </row>
     <row r="266">
-      <c r="A266" s="18"/>
+      <c r="A266" s="19"/>
     </row>
     <row r="267">
-      <c r="A267" s="18"/>
+      <c r="A267" s="19"/>
     </row>
     <row r="268">
-      <c r="A268" s="18"/>
+      <c r="A268" s="19"/>
     </row>
     <row r="269">
-      <c r="A269" s="18"/>
+      <c r="A269" s="19"/>
     </row>
     <row r="270">
-      <c r="A270" s="18"/>
+      <c r="A270" s="19"/>
     </row>
     <row r="271">
-      <c r="A271" s="18"/>
+      <c r="A271" s="19"/>
     </row>
     <row r="272">
-      <c r="A272" s="18"/>
+      <c r="A272" s="19"/>
     </row>
     <row r="273">
-      <c r="A273" s="18"/>
+      <c r="A273" s="19"/>
     </row>
     <row r="274">
-      <c r="A274" s="18"/>
+      <c r="A274" s="19"/>
     </row>
     <row r="275">
-      <c r="A275" s="18"/>
+      <c r="A275" s="19"/>
     </row>
     <row r="276">
-      <c r="A276" s="18"/>
+      <c r="A276" s="19"/>
     </row>
     <row r="277">
-      <c r="A277" s="18"/>
+      <c r="A277" s="19"/>
     </row>
     <row r="278">
-      <c r="A278" s="18"/>
+      <c r="A278" s="19"/>
     </row>
     <row r="279">
-      <c r="A279" s="18"/>
+      <c r="A279" s="19"/>
     </row>
     <row r="280">
-      <c r="A280" s="18"/>
+      <c r="A280" s="19"/>
     </row>
     <row r="281">
-      <c r="A281" s="18"/>
+      <c r="A281" s="19"/>
     </row>
     <row r="282">
-      <c r="A282" s="18"/>
+      <c r="A282" s="19"/>
     </row>
     <row r="283">
-      <c r="A283" s="18"/>
+      <c r="A283" s="19"/>
     </row>
     <row r="284">
-      <c r="A284" s="18"/>
+      <c r="A284" s="19"/>
     </row>
     <row r="285">
-      <c r="A285" s="18"/>
+      <c r="A285" s="19"/>
     </row>
     <row r="286">
-      <c r="A286" s="18"/>
+      <c r="A286" s="19"/>
     </row>
     <row r="287">
-      <c r="A287" s="18"/>
+      <c r="A287" s="19"/>
     </row>
     <row r="288">
-      <c r="A288" s="18"/>
+      <c r="A288" s="19"/>
     </row>
     <row r="289">
-      <c r="A289" s="18"/>
+      <c r="A289" s="19"/>
     </row>
     <row r="290">
-      <c r="A290" s="18"/>
+      <c r="A290" s="19"/>
     </row>
     <row r="291">
-      <c r="A291" s="18"/>
+      <c r="A291" s="19"/>
     </row>
     <row r="292">
-      <c r="A292" s="18"/>
+      <c r="A292" s="19"/>
     </row>
     <row r="293">
-      <c r="A293" s="18"/>
+      <c r="A293" s="19"/>
     </row>
     <row r="294">
-      <c r="A294" s="18"/>
+      <c r="A294" s="19"/>
     </row>
     <row r="295">
-      <c r="A295" s="18"/>
+      <c r="A295" s="19"/>
     </row>
     <row r="296">
-      <c r="A296" s="18"/>
+      <c r="A296" s="19"/>
     </row>
     <row r="297">
-      <c r="A297" s="18"/>
+      <c r="A297" s="19"/>
     </row>
     <row r="298">
-      <c r="A298" s="18"/>
+      <c r="A298" s="19"/>
     </row>
     <row r="299">
-      <c r="A299" s="18"/>
+      <c r="A299" s="19"/>
     </row>
     <row r="300">
-      <c r="A300" s="18"/>
+      <c r="A300" s="19"/>
     </row>
     <row r="301">
-      <c r="A301" s="18"/>
+      <c r="A301" s="19"/>
     </row>
     <row r="302">
-      <c r="A302" s="18"/>
+      <c r="A302" s="19"/>
     </row>
     <row r="303">
-      <c r="A303" s="18"/>
+      <c r="A303" s="19"/>
     </row>
     <row r="304">
-      <c r="A304" s="18"/>
+      <c r="A304" s="19"/>
     </row>
     <row r="305">
-      <c r="A305" s="18"/>
+      <c r="A305" s="19"/>
     </row>
     <row r="306">
-      <c r="A306" s="18"/>
+      <c r="A306" s="19"/>
     </row>
     <row r="307">
-      <c r="A307" s="18"/>
+      <c r="A307" s="19"/>
     </row>
     <row r="308">
-      <c r="A308" s="18"/>
+      <c r="A308" s="19"/>
     </row>
     <row r="309">
-      <c r="A309" s="18"/>
+      <c r="A309" s="19"/>
     </row>
     <row r="310">
-      <c r="A310" s="18"/>
+      <c r="A310" s="19"/>
     </row>
     <row r="311">
-      <c r="A311" s="18"/>
+      <c r="A311" s="19"/>
     </row>
     <row r="312">
-      <c r="A312" s="18"/>
+      <c r="A312" s="19"/>
     </row>
     <row r="313">
-      <c r="A313" s="18"/>
+      <c r="A313" s="19"/>
     </row>
     <row r="314">
-      <c r="A314" s="18"/>
+      <c r="A314" s="19"/>
     </row>
     <row r="315">
-      <c r="A315" s="18"/>
+      <c r="A315" s="19"/>
     </row>
     <row r="316">
-      <c r="A316" s="18"/>
+      <c r="A316" s="19"/>
     </row>
     <row r="317">
-      <c r="A317" s="18"/>
+      <c r="A317" s="19"/>
     </row>
     <row r="318">
-      <c r="A318" s="18"/>
+      <c r="A318" s="19"/>
     </row>
     <row r="319">
-      <c r="A319" s="18"/>
+      <c r="A319" s="19"/>
     </row>
     <row r="320">
-      <c r="A320" s="18"/>
+      <c r="A320" s="19"/>
     </row>
     <row r="321">
-      <c r="A321" s="18"/>
+      <c r="A321" s="19"/>
     </row>
     <row r="322">
-      <c r="A322" s="18"/>
+      <c r="A322" s="19"/>
     </row>
     <row r="323">
-      <c r="A323" s="18"/>
+      <c r="A323" s="19"/>
     </row>
     <row r="324">
-      <c r="A324" s="18"/>
+      <c r="A324" s="19"/>
     </row>
     <row r="325">
-      <c r="A325" s="18"/>
+      <c r="A325" s="19"/>
     </row>
     <row r="326">
-      <c r="A326" s="18"/>
+      <c r="A326" s="19"/>
     </row>
     <row r="327">
-      <c r="A327" s="18"/>
+      <c r="A327" s="19"/>
     </row>
     <row r="328">
-      <c r="A328" s="18"/>
+      <c r="A328" s="19"/>
     </row>
     <row r="329">
-      <c r="A329" s="18"/>
+      <c r="A329" s="19"/>
     </row>
     <row r="330">
-      <c r="A330" s="18"/>
+      <c r="A330" s="19"/>
     </row>
     <row r="331">
-      <c r="A331" s="18"/>
+      <c r="A331" s="19"/>
     </row>
     <row r="332">
-      <c r="A332" s="18"/>
+      <c r="A332" s="19"/>
     </row>
     <row r="333">
-      <c r="A333" s="18"/>
+      <c r="A333" s="19"/>
     </row>
     <row r="334">
-      <c r="A334" s="18"/>
+      <c r="A334" s="19"/>
     </row>
     <row r="335">
-      <c r="A335" s="18"/>
+      <c r="A335" s="19"/>
     </row>
     <row r="336">
-      <c r="A336" s="18"/>
+      <c r="A336" s="19"/>
     </row>
     <row r="337">
-      <c r="A337" s="18"/>
+      <c r="A337" s="19"/>
     </row>
     <row r="338">
-      <c r="A338" s="18"/>
+      <c r="A338" s="19"/>
     </row>
     <row r="339">
-      <c r="A339" s="18"/>
+      <c r="A339" s="19"/>
     </row>
     <row r="340">
-      <c r="A340" s="18"/>
+      <c r="A340" s="19"/>
     </row>
     <row r="341">
-      <c r="A341" s="18"/>
+      <c r="A341" s="19"/>
     </row>
     <row r="342">
-      <c r="A342" s="18"/>
+      <c r="A342" s="19"/>
     </row>
     <row r="343">
-      <c r="A343" s="18"/>
+      <c r="A343" s="19"/>
     </row>
     <row r="344">
-      <c r="A344" s="18"/>
+      <c r="A344" s="19"/>
     </row>
     <row r="345">
-      <c r="A345" s="18"/>
+      <c r="A345" s="19"/>
     </row>
     <row r="346">
-      <c r="A346" s="18"/>
+      <c r="A346" s="19"/>
     </row>
     <row r="347">
-      <c r="A347" s="18"/>
+      <c r="A347" s="19"/>
     </row>
     <row r="348">
-      <c r="A348" s="18"/>
+      <c r="A348" s="19"/>
     </row>
     <row r="349">
-      <c r="A349" s="18"/>
+      <c r="A349" s="19"/>
     </row>
     <row r="350">
-      <c r="A350" s="18"/>
+      <c r="A350" s="19"/>
     </row>
     <row r="351">
-      <c r="A351" s="18"/>
+      <c r="A351" s="19"/>
     </row>
     <row r="352">
-      <c r="A352" s="18"/>
+      <c r="A352" s="19"/>
     </row>
     <row r="353">
-      <c r="A353" s="18"/>
+      <c r="A353" s="19"/>
     </row>
     <row r="354">
-      <c r="A354" s="18"/>
+      <c r="A354" s="19"/>
     </row>
     <row r="355">
-      <c r="A355" s="18"/>
+      <c r="A355" s="19"/>
     </row>
     <row r="356">
-      <c r="A356" s="18"/>
+      <c r="A356" s="19"/>
     </row>
     <row r="357">
-      <c r="A357" s="18"/>
+      <c r="A357" s="19"/>
     </row>
     <row r="358">
-      <c r="A358" s="18"/>
+      <c r="A358" s="19"/>
     </row>
     <row r="359">
-      <c r="A359" s="18"/>
+      <c r="A359" s="19"/>
     </row>
     <row r="360">
-      <c r="A360" s="18"/>
+      <c r="A360" s="19"/>
     </row>
     <row r="361">
-      <c r="A361" s="18"/>
+      <c r="A361" s="19"/>
     </row>
     <row r="362">
-      <c r="A362" s="18"/>
+      <c r="A362" s="19"/>
     </row>
     <row r="363">
-      <c r="A363" s="18"/>
+      <c r="A363" s="19"/>
     </row>
     <row r="364">
-      <c r="A364" s="18"/>
+      <c r="A364" s="19"/>
     </row>
     <row r="365">
-      <c r="A365" s="18"/>
+      <c r="A365" s="19"/>
     </row>
     <row r="366">
-      <c r="A366" s="18"/>
+      <c r="A366" s="19"/>
     </row>
     <row r="367">
-      <c r="A367" s="18"/>
+      <c r="A367" s="19"/>
     </row>
     <row r="368">
-      <c r="A368" s="18"/>
+      <c r="A368" s="19"/>
     </row>
     <row r="369">
-      <c r="A369" s="18"/>
+      <c r="A369" s="19"/>
     </row>
     <row r="370">
-      <c r="A370" s="18"/>
+      <c r="A370" s="19"/>
     </row>
     <row r="371">
-      <c r="A371" s="18"/>
+      <c r="A371" s="19"/>
     </row>
     <row r="372">
-      <c r="A372" s="18"/>
+      <c r="A372" s="19"/>
     </row>
     <row r="373">
-      <c r="A373" s="18"/>
+      <c r="A373" s="19"/>
     </row>
     <row r="374">
-      <c r="A374" s="18"/>
+      <c r="A374" s="19"/>
     </row>
     <row r="375">
-      <c r="A375" s="18"/>
+      <c r="A375" s="19"/>
     </row>
     <row r="376">
-      <c r="A376" s="18"/>
+      <c r="A376" s="19"/>
     </row>
     <row r="377">
-      <c r="A377" s="18"/>
+      <c r="A377" s="19"/>
     </row>
     <row r="378">
-      <c r="A378" s="18"/>
+      <c r="A378" s="19"/>
     </row>
     <row r="379">
-      <c r="A379" s="18"/>
+      <c r="A379" s="19"/>
     </row>
     <row r="380">
-      <c r="A380" s="18"/>
+      <c r="A380" s="19"/>
     </row>
     <row r="381">
-      <c r="A381" s="18"/>
+      <c r="A381" s="19"/>
     </row>
     <row r="382">
-      <c r="A382" s="18"/>
+      <c r="A382" s="19"/>
     </row>
     <row r="383">
-      <c r="A383" s="18"/>
+      <c r="A383" s="19"/>
     </row>
     <row r="384">
-      <c r="A384" s="18"/>
+      <c r="A384" s="19"/>
     </row>
     <row r="385">
-      <c r="A385" s="18"/>
+      <c r="A385" s="19"/>
     </row>
     <row r="386">
-      <c r="A386" s="18"/>
+      <c r="A386" s="19"/>
     </row>
     <row r="387">
-      <c r="A387" s="18"/>
+      <c r="A387" s="19"/>
     </row>
     <row r="388">
-      <c r="A388" s="18"/>
+      <c r="A388" s="19"/>
     </row>
     <row r="389">
-      <c r="A389" s="18"/>
+      <c r="A389" s="19"/>
     </row>
     <row r="390">
-      <c r="A390" s="18"/>
+      <c r="A390" s="19"/>
     </row>
     <row r="391">
-      <c r="A391" s="18"/>
+      <c r="A391" s="19"/>
     </row>
     <row r="392">
-      <c r="A392" s="18"/>
+      <c r="A392" s="19"/>
     </row>
     <row r="393">
-      <c r="A393" s="18"/>
+      <c r="A393" s="19"/>
     </row>
     <row r="394">
-      <c r="A394" s="18"/>
+      <c r="A394" s="19"/>
     </row>
     <row r="395">
-      <c r="A395" s="18"/>
+      <c r="A395" s="19"/>
     </row>
     <row r="396">
-      <c r="A396" s="18"/>
+      <c r="A396" s="19"/>
     </row>
     <row r="397">
-      <c r="A397" s="18"/>
+      <c r="A397" s="19"/>
     </row>
     <row r="398">
-      <c r="A398" s="18"/>
+      <c r="A398" s="19"/>
     </row>
     <row r="399">
-      <c r="A399" s="18"/>
+      <c r="A399" s="19"/>
     </row>
     <row r="400">
-      <c r="A400" s="18"/>
+      <c r="A400" s="19"/>
     </row>
     <row r="401">
-      <c r="A401" s="18"/>
+      <c r="A401" s="19"/>
     </row>
     <row r="402">
-      <c r="A402" s="18"/>
+      <c r="A402" s="19"/>
     </row>
     <row r="403">
-      <c r="A403" s="18"/>
+      <c r="A403" s="19"/>
     </row>
     <row r="404">
-      <c r="A404" s="18"/>
+      <c r="A404" s="19"/>
     </row>
     <row r="405">
-      <c r="A405" s="18"/>
+      <c r="A405" s="19"/>
     </row>
     <row r="406">
-      <c r="A406" s="18"/>
+      <c r="A406" s="19"/>
     </row>
     <row r="407">
-      <c r="A407" s="18"/>
+      <c r="A407" s="19"/>
     </row>
     <row r="408">
-      <c r="A408" s="18"/>
+      <c r="A408" s="19"/>
     </row>
     <row r="409">
-      <c r="A409" s="18"/>
+      <c r="A409" s="19"/>
     </row>
     <row r="410">
-      <c r="A410" s="18"/>
+      <c r="A410" s="19"/>
     </row>
     <row r="411">
-      <c r="A411" s="18"/>
+      <c r="A411" s="19"/>
     </row>
     <row r="412">
-      <c r="A412" s="18"/>
+      <c r="A412" s="19"/>
     </row>
     <row r="413">
-      <c r="A413" s="18"/>
+      <c r="A413" s="19"/>
     </row>
     <row r="414">
-      <c r="A414" s="18"/>
+      <c r="A414" s="19"/>
     </row>
     <row r="415">
-      <c r="A415" s="18"/>
+      <c r="A415" s="19"/>
     </row>
     <row r="416">
-      <c r="A416" s="18"/>
+      <c r="A416" s="19"/>
     </row>
     <row r="417">
-      <c r="A417" s="18"/>
+      <c r="A417" s="19"/>
     </row>
     <row r="418">
-      <c r="A418" s="18"/>
+      <c r="A418" s="19"/>
     </row>
     <row r="419">
-      <c r="A419" s="18"/>
+      <c r="A419" s="19"/>
     </row>
     <row r="420">
-      <c r="A420" s="18"/>
+      <c r="A420" s="19"/>
     </row>
     <row r="421">
-      <c r="A421" s="18"/>
+      <c r="A421" s="19"/>
     </row>
     <row r="422">
-      <c r="A422" s="18"/>
+      <c r="A422" s="19"/>
     </row>
     <row r="423">
-      <c r="A423" s="18"/>
+      <c r="A423" s="19"/>
     </row>
     <row r="424">
-      <c r="A424" s="18"/>
+      <c r="A424" s="19"/>
     </row>
     <row r="425">
-      <c r="A425" s="18"/>
+      <c r="A425" s="19"/>
     </row>
     <row r="426">
-      <c r="A426" s="18"/>
+      <c r="A426" s="19"/>
     </row>
     <row r="427">
-      <c r="A427" s="18"/>
+      <c r="A427" s="19"/>
     </row>
     <row r="428">
-      <c r="A428" s="18"/>
+      <c r="A428" s="19"/>
     </row>
     <row r="429">
-      <c r="A429" s="18"/>
+      <c r="A429" s="19"/>
     </row>
     <row r="430">
-      <c r="A430" s="18"/>
+      <c r="A430" s="19"/>
     </row>
     <row r="431">
-      <c r="A431" s="18"/>
+      <c r="A431" s="19"/>
     </row>
     <row r="432">
-      <c r="A432" s="18"/>
+      <c r="A432" s="19"/>
     </row>
     <row r="433">
-      <c r="A433" s="18"/>
+      <c r="A433" s="19"/>
     </row>
     <row r="434">
-      <c r="A434" s="18"/>
+      <c r="A434" s="19"/>
     </row>
     <row r="435">
-      <c r="A435" s="18"/>
+      <c r="A435" s="19"/>
     </row>
     <row r="436">
-      <c r="A436" s="18"/>
+      <c r="A436" s="19"/>
     </row>
     <row r="437">
-      <c r="A437" s="18"/>
+      <c r="A437" s="19"/>
     </row>
     <row r="438">
-      <c r="A438" s="18"/>
+      <c r="A438" s="19"/>
     </row>
     <row r="439">
-      <c r="A439" s="18"/>
+      <c r="A439" s="19"/>
     </row>
     <row r="440">
-      <c r="A440" s="18"/>
+      <c r="A440" s="19"/>
     </row>
     <row r="441">
-      <c r="A441" s="18"/>
+      <c r="A441" s="19"/>
     </row>
     <row r="442">
-      <c r="A442" s="18"/>
+      <c r="A442" s="19"/>
     </row>
     <row r="443">
-      <c r="A443" s="18"/>
+      <c r="A443" s="19"/>
     </row>
     <row r="444">
-      <c r="A444" s="18"/>
+      <c r="A444" s="19"/>
     </row>
     <row r="445">
-      <c r="A445" s="18"/>
+      <c r="A445" s="19"/>
     </row>
     <row r="446">
-      <c r="A446" s="18"/>
+      <c r="A446" s="19"/>
     </row>
     <row r="447">
-      <c r="A447" s="18"/>
+      <c r="A447" s="19"/>
     </row>
     <row r="448">
-      <c r="A448" s="18"/>
+      <c r="A448" s="19"/>
     </row>
     <row r="449">
-      <c r="A449" s="18"/>
+      <c r="A449" s="19"/>
     </row>
     <row r="450">
-      <c r="A450" s="18"/>
+      <c r="A450" s="19"/>
     </row>
     <row r="451">
-      <c r="A451" s="18"/>
+      <c r="A451" s="19"/>
     </row>
     <row r="452">
-      <c r="A452" s="18"/>
+      <c r="A452" s="19"/>
     </row>
     <row r="453">
-      <c r="A453" s="18"/>
+      <c r="A453" s="19"/>
     </row>
     <row r="454">
-      <c r="A454" s="18"/>
+      <c r="A454" s="19"/>
     </row>
     <row r="455">
-      <c r="A455" s="18"/>
+      <c r="A455" s="19"/>
     </row>
     <row r="456">
-      <c r="A456" s="18"/>
+      <c r="A456" s="19"/>
     </row>
     <row r="457">
-      <c r="A457" s="18"/>
+      <c r="A457" s="19"/>
     </row>
     <row r="458">
-      <c r="A458" s="18"/>
+      <c r="A458" s="19"/>
     </row>
     <row r="459">
-      <c r="A459" s="18"/>
+      <c r="A459" s="19"/>
     </row>
     <row r="460">
-      <c r="A460" s="18"/>
+      <c r="A460" s="19"/>
     </row>
     <row r="461">
-      <c r="A461" s="18"/>
+      <c r="A461" s="19"/>
     </row>
     <row r="462">
-      <c r="A462" s="18"/>
+      <c r="A462" s="19"/>
     </row>
     <row r="463">
-      <c r="A463" s="18"/>
+      <c r="A463" s="19"/>
     </row>
     <row r="464">
-      <c r="A464" s="18"/>
+      <c r="A464" s="19"/>
     </row>
     <row r="465">
-      <c r="A465" s="18"/>
+      <c r="A465" s="19"/>
     </row>
     <row r="466">
-      <c r="A466" s="18"/>
+      <c r="A466" s="19"/>
     </row>
     <row r="467">
-      <c r="A467" s="18"/>
+      <c r="A467" s="19"/>
     </row>
     <row r="468">
-      <c r="A468" s="18"/>
+      <c r="A468" s="19"/>
     </row>
     <row r="469">
-      <c r="A469" s="18"/>
+      <c r="A469" s="19"/>
     </row>
     <row r="470">
-      <c r="A470" s="18"/>
+      <c r="A470" s="19"/>
     </row>
     <row r="471">
-      <c r="A471" s="18"/>
+      <c r="A471" s="19"/>
     </row>
     <row r="472">
-      <c r="A472" s="18"/>
+      <c r="A472" s="19"/>
     </row>
     <row r="473">
-      <c r="A473" s="18"/>
+      <c r="A473" s="19"/>
     </row>
     <row r="474">
-      <c r="A474" s="18"/>
+      <c r="A474" s="19"/>
     </row>
     <row r="475">
-      <c r="A475" s="18"/>
+      <c r="A475" s="19"/>
     </row>
     <row r="476">
-      <c r="A476" s="18"/>
+      <c r="A476" s="19"/>
     </row>
     <row r="477">
-      <c r="A477" s="18"/>
+      <c r="A477" s="19"/>
     </row>
     <row r="478">
-      <c r="A478" s="18"/>
+      <c r="A478" s="19"/>
     </row>
     <row r="479">
-      <c r="A479" s="18"/>
+      <c r="A479" s="19"/>
     </row>
     <row r="480">
-      <c r="A480" s="18"/>
+      <c r="A480" s="19"/>
     </row>
     <row r="481">
-      <c r="A481" s="18"/>
+      <c r="A481" s="19"/>
     </row>
     <row r="482">
-      <c r="A482" s="18"/>
+      <c r="A482" s="19"/>
     </row>
     <row r="483">
-      <c r="A483" s="18"/>
+      <c r="A483" s="19"/>
     </row>
     <row r="484">
-      <c r="A484" s="18"/>
+      <c r="A484" s="19"/>
     </row>
     <row r="485">
-      <c r="A485" s="18"/>
+      <c r="A485" s="19"/>
     </row>
     <row r="486">
-      <c r="A486" s="18"/>
+      <c r="A486" s="19"/>
     </row>
     <row r="487">
-      <c r="A487" s="18"/>
+      <c r="A487" s="19"/>
     </row>
     <row r="488">
-      <c r="A488" s="18"/>
+      <c r="A488" s="19"/>
     </row>
     <row r="489">
-      <c r="A489" s="18"/>
+      <c r="A489" s="19"/>
     </row>
     <row r="490">
-      <c r="A490" s="18"/>
+      <c r="A490" s="19"/>
     </row>
     <row r="491">
-      <c r="A491" s="18"/>
+      <c r="A491" s="19"/>
     </row>
     <row r="492">
-      <c r="A492" s="18"/>
+      <c r="A492" s="19"/>
     </row>
     <row r="493">
-      <c r="A493" s="18"/>
+      <c r="A493" s="19"/>
     </row>
     <row r="494">
-      <c r="A494" s="18"/>
+      <c r="A494" s="19"/>
     </row>
     <row r="495">
-      <c r="A495" s="18"/>
+      <c r="A495" s="19"/>
     </row>
     <row r="496">
-      <c r="A496" s="18"/>
+      <c r="A496" s="19"/>
     </row>
     <row r="497">
-      <c r="A497" s="18"/>
+      <c r="A497" s="19"/>
     </row>
     <row r="498">
-      <c r="A498" s="18"/>
+      <c r="A498" s="19"/>
     </row>
     <row r="499">
-      <c r="A499" s="18"/>
+      <c r="A499" s="19"/>
     </row>
     <row r="500">
-      <c r="A500" s="18"/>
+      <c r="A500" s="19"/>
     </row>
     <row r="501">
-      <c r="A501" s="18"/>
+      <c r="A501" s="19"/>
     </row>
     <row r="502">
-      <c r="A502" s="18"/>
+      <c r="A502" s="19"/>
     </row>
     <row r="503">
-      <c r="A503" s="18"/>
+      <c r="A503" s="19"/>
     </row>
     <row r="504">
-      <c r="A504" s="18"/>
+      <c r="A504" s="19"/>
     </row>
     <row r="505">
-      <c r="A505" s="18"/>
+      <c r="A505" s="19"/>
     </row>
     <row r="506">
-      <c r="A506" s="18"/>
+      <c r="A506" s="19"/>
     </row>
     <row r="507">
-      <c r="A507" s="18"/>
+      <c r="A507" s="19"/>
     </row>
     <row r="508">
-      <c r="A508" s="18"/>
+      <c r="A508" s="19"/>
     </row>
     <row r="509">
-      <c r="A509" s="18"/>
+      <c r="A509" s="19"/>
     </row>
     <row r="510">
-      <c r="A510" s="18"/>
+      <c r="A510" s="19"/>
     </row>
     <row r="511">
-      <c r="A511" s="18"/>
+      <c r="A511" s="19"/>
     </row>
     <row r="512">
-      <c r="A512" s="18"/>
+      <c r="A512" s="19"/>
     </row>
     <row r="513">
-      <c r="A513" s="18"/>
+      <c r="A513" s="19"/>
     </row>
     <row r="514">
-      <c r="A514" s="18"/>
+      <c r="A514" s="19"/>
     </row>
     <row r="515">
-      <c r="A515" s="18"/>
+      <c r="A515" s="19"/>
     </row>
     <row r="516">
-      <c r="A516" s="18"/>
+      <c r="A516" s="19"/>
     </row>
     <row r="517">
-      <c r="A517" s="18"/>
+      <c r="A517" s="19"/>
     </row>
     <row r="518">
-      <c r="A518" s="18"/>
+      <c r="A518" s="19"/>
     </row>
     <row r="519">
-      <c r="A519" s="18"/>
+      <c r="A519" s="19"/>
     </row>
     <row r="520">
-      <c r="A520" s="18"/>
+      <c r="A520" s="19"/>
     </row>
     <row r="521">
-      <c r="A521" s="18"/>
+      <c r="A521" s="19"/>
     </row>
     <row r="522">
-      <c r="A522" s="18"/>
+      <c r="A522" s="19"/>
     </row>
     <row r="523">
-      <c r="A523" s="18"/>
+      <c r="A523" s="19"/>
     </row>
     <row r="524">
-      <c r="A524" s="18"/>
+      <c r="A524" s="19"/>
     </row>
     <row r="525">
-      <c r="A525" s="18"/>
+      <c r="A525" s="19"/>
     </row>
     <row r="526">
-      <c r="A526" s="18"/>
+      <c r="A526" s="19"/>
     </row>
     <row r="527">
-      <c r="A527" s="18"/>
+      <c r="A527" s="19"/>
     </row>
     <row r="528">
-      <c r="A528" s="18"/>
+      <c r="A528" s="19"/>
     </row>
     <row r="529">
-      <c r="A529" s="18"/>
+      <c r="A529" s="19"/>
     </row>
     <row r="530">
-      <c r="A530" s="18"/>
+      <c r="A530" s="19"/>
     </row>
     <row r="531">
-      <c r="A531" s="18"/>
+      <c r="A531" s="19"/>
     </row>
     <row r="532">
-      <c r="A532" s="18"/>
+      <c r="A532" s="19"/>
     </row>
     <row r="533">
-      <c r="A533" s="18"/>
+      <c r="A533" s="19"/>
     </row>
     <row r="534">
-      <c r="A534" s="18"/>
+      <c r="A534" s="19"/>
     </row>
     <row r="535">
-      <c r="A535" s="18"/>
+      <c r="A535" s="19"/>
     </row>
     <row r="536">
-      <c r="A536" s="18"/>
+      <c r="A536" s="19"/>
     </row>
     <row r="537">
-      <c r="A537" s="18"/>
+      <c r="A537" s="19"/>
     </row>
     <row r="538">
-      <c r="A538" s="18"/>
+      <c r="A538" s="19"/>
     </row>
     <row r="539">
-      <c r="A539" s="18"/>
+      <c r="A539" s="19"/>
     </row>
     <row r="540">
-      <c r="A540" s="18"/>
+      <c r="A540" s="19"/>
     </row>
     <row r="541">
-      <c r="A541" s="18"/>
+      <c r="A541" s="19"/>
     </row>
     <row r="542">
-      <c r="A542" s="18"/>
+      <c r="A542" s="19"/>
     </row>
     <row r="543">
-      <c r="A543" s="18"/>
+      <c r="A543" s="19"/>
     </row>
     <row r="544">
-      <c r="A544" s="18"/>
+      <c r="A544" s="19"/>
     </row>
     <row r="545">
-      <c r="A545" s="18"/>
+      <c r="A545" s="19"/>
     </row>
     <row r="546">
-      <c r="A546" s="18"/>
+      <c r="A546" s="19"/>
     </row>
     <row r="547">
-      <c r="A547" s="18"/>
+      <c r="A547" s="19"/>
     </row>
     <row r="548">
-      <c r="A548" s="18"/>
+      <c r="A548" s="19"/>
     </row>
     <row r="549">
-      <c r="A549" s="18"/>
+      <c r="A549" s="19"/>
     </row>
     <row r="550">
-      <c r="A550" s="18"/>
+      <c r="A550" s="19"/>
     </row>
     <row r="551">
-      <c r="A551" s="18"/>
+      <c r="A551" s="19"/>
     </row>
     <row r="552">
-      <c r="A552" s="18"/>
+      <c r="A552" s="19"/>
     </row>
     <row r="553">
-      <c r="A553" s="18"/>
+      <c r="A553" s="19"/>
     </row>
     <row r="554">
-      <c r="A554" s="18"/>
+      <c r="A554" s="19"/>
     </row>
     <row r="555">
-      <c r="A555" s="18"/>
+      <c r="A555" s="19"/>
     </row>
     <row r="556">
-      <c r="A556" s="18"/>
+      <c r="A556" s="19"/>
     </row>
     <row r="557">
-      <c r="A557" s="18"/>
+      <c r="A557" s="19"/>
     </row>
     <row r="558">
-      <c r="A558" s="18"/>
+      <c r="A558" s="19"/>
     </row>
     <row r="559">
-      <c r="A559" s="18"/>
+      <c r="A559" s="19"/>
     </row>
     <row r="560">
-      <c r="A560" s="18"/>
+      <c r="A560" s="19"/>
     </row>
     <row r="561">
-      <c r="A561" s="18"/>
+      <c r="A561" s="19"/>
     </row>
     <row r="562">
-      <c r="A562" s="18"/>
+      <c r="A562" s="19"/>
     </row>
     <row r="563">
-      <c r="A563" s="18"/>
+      <c r="A563" s="19"/>
     </row>
     <row r="564">
-      <c r="A564" s="18"/>
+      <c r="A564" s="19"/>
     </row>
     <row r="565">
-      <c r="A565" s="18"/>
+      <c r="A565" s="19"/>
     </row>
     <row r="566">
-      <c r="A566" s="18"/>
+      <c r="A566" s="19"/>
     </row>
     <row r="567">
-      <c r="A567" s="18"/>
+      <c r="A567" s="19"/>
     </row>
     <row r="568">
-      <c r="A568" s="18"/>
+      <c r="A568" s="19"/>
     </row>
     <row r="569">
-      <c r="A569" s="18"/>
+      <c r="A569" s="19"/>
     </row>
     <row r="570">
-      <c r="A570" s="18"/>
+      <c r="A570" s="19"/>
     </row>
     <row r="571">
-      <c r="A571" s="18"/>
+      <c r="A571" s="19"/>
     </row>
     <row r="572">
-      <c r="A572" s="18"/>
+      <c r="A572" s="19"/>
     </row>
     <row r="573">
-      <c r="A573" s="18"/>
+      <c r="A573" s="19"/>
     </row>
     <row r="574">
-      <c r="A574" s="18"/>
+      <c r="A574" s="19"/>
     </row>
     <row r="575">
-      <c r="A575" s="18"/>
+      <c r="A575" s="19"/>
     </row>
     <row r="576">
-      <c r="A576" s="18"/>
+      <c r="A576" s="19"/>
     </row>
     <row r="577">
-      <c r="A577" s="18"/>
+      <c r="A577" s="19"/>
     </row>
     <row r="578">
-      <c r="A578" s="18"/>
+      <c r="A578" s="19"/>
     </row>
     <row r="579">
-      <c r="A579" s="18"/>
+      <c r="A579" s="19"/>
     </row>
     <row r="580">
-      <c r="A580" s="18"/>
+      <c r="A580" s="19"/>
     </row>
     <row r="581">
-      <c r="A581" s="18"/>
+      <c r="A581" s="19"/>
     </row>
     <row r="582">
-      <c r="A582" s="18"/>
+      <c r="A582" s="19"/>
     </row>
     <row r="583">
-      <c r="A583" s="18"/>
+      <c r="A583" s="19"/>
     </row>
     <row r="584">
-      <c r="A584" s="18"/>
+      <c r="A584" s="19"/>
     </row>
     <row r="585">
-      <c r="A585" s="18"/>
+      <c r="A585" s="19"/>
     </row>
     <row r="586">
-      <c r="A586" s="18"/>
+      <c r="A586" s="19"/>
     </row>
     <row r="587">
-      <c r="A587" s="18"/>
+      <c r="A587" s="19"/>
     </row>
     <row r="588">
-      <c r="A588" s="18"/>
+      <c r="A588" s="19"/>
     </row>
     <row r="589">
-      <c r="A589" s="18"/>
+      <c r="A589" s="19"/>
     </row>
     <row r="590">
-      <c r="A590" s="18"/>
+      <c r="A590" s="19"/>
     </row>
     <row r="591">
-      <c r="A591" s="18"/>
+      <c r="A591" s="19"/>
     </row>
     <row r="592">
-      <c r="A592" s="18"/>
+      <c r="A592" s="19"/>
     </row>
     <row r="593">
-      <c r="A593" s="18"/>
+      <c r="A593" s="19"/>
     </row>
     <row r="594">
-      <c r="A594" s="18"/>
+      <c r="A594" s="19"/>
     </row>
     <row r="595">
-      <c r="A595" s="18"/>
+      <c r="A595" s="19"/>
     </row>
     <row r="596">
-      <c r="A596" s="18"/>
+      <c r="A596" s="19"/>
     </row>
     <row r="597">
-      <c r="A597" s="18"/>
+      <c r="A597" s="19"/>
     </row>
     <row r="598">
-      <c r="A598" s="18"/>
+      <c r="A598" s="19"/>
     </row>
     <row r="599">
-      <c r="A599" s="18"/>
+      <c r="A599" s="19"/>
     </row>
     <row r="600">
-      <c r="A600" s="18"/>
+      <c r="A600" s="19"/>
     </row>
     <row r="601">
-      <c r="A601" s="18"/>
+      <c r="A601" s="19"/>
     </row>
     <row r="602">
-      <c r="A602" s="18"/>
+      <c r="A602" s="19"/>
     </row>
     <row r="603">
-      <c r="A603" s="18"/>
+      <c r="A603" s="19"/>
     </row>
     <row r="604">
-      <c r="A604" s="18"/>
+      <c r="A604" s="19"/>
     </row>
     <row r="605">
-      <c r="A605" s="18"/>
+      <c r="A605" s="19"/>
     </row>
     <row r="606">
-      <c r="A606" s="18"/>
+      <c r="A606" s="19"/>
     </row>
     <row r="607">
-      <c r="A607" s="18"/>
+      <c r="A607" s="19"/>
     </row>
     <row r="608">
-      <c r="A608" s="18"/>
+      <c r="A608" s="19"/>
     </row>
     <row r="609">
-      <c r="A609" s="18"/>
+      <c r="A609" s="19"/>
     </row>
     <row r="610">
-      <c r="A610" s="18"/>
+      <c r="A610" s="19"/>
     </row>
     <row r="611">
-      <c r="A611" s="18"/>
+      <c r="A611" s="19"/>
     </row>
     <row r="612">
-      <c r="A612" s="18"/>
+      <c r="A612" s="19"/>
     </row>
     <row r="613">
-      <c r="A613" s="18"/>
+      <c r="A613" s="19"/>
     </row>
     <row r="614">
-      <c r="A614" s="18"/>
+      <c r="A614" s="19"/>
     </row>
     <row r="615">
-      <c r="A615" s="18"/>
+      <c r="A615" s="19"/>
     </row>
     <row r="616">
-      <c r="A616" s="18"/>
+      <c r="A616" s="19"/>
     </row>
     <row r="617">
-      <c r="A617" s="18"/>
+      <c r="A617" s="19"/>
     </row>
     <row r="618">
-      <c r="A618" s="18"/>
+      <c r="A618" s="19"/>
     </row>
     <row r="619">
-      <c r="A619" s="18"/>
+      <c r="A619" s="19"/>
     </row>
     <row r="620">
-      <c r="A620" s="18"/>
+      <c r="A620" s="19"/>
     </row>
     <row r="621">
-      <c r="A621" s="18"/>
+      <c r="A621" s="19"/>
     </row>
     <row r="622">
-      <c r="A622" s="18"/>
+      <c r="A622" s="19"/>
     </row>
     <row r="623">
-      <c r="A623" s="18"/>
+      <c r="A623" s="19"/>
     </row>
     <row r="624">
-      <c r="A624" s="18"/>
+      <c r="A624" s="19"/>
     </row>
     <row r="625">
-      <c r="A625" s="18"/>
+      <c r="A625" s="19"/>
     </row>
     <row r="626">
-      <c r="A626" s="18"/>
+      <c r="A626" s="19"/>
     </row>
     <row r="627">
-      <c r="A627" s="18"/>
+      <c r="A627" s="19"/>
     </row>
     <row r="628">
-      <c r="A628" s="18"/>
+      <c r="A628" s="19"/>
     </row>
     <row r="629">
-      <c r="A629" s="18"/>
+      <c r="A629" s="19"/>
     </row>
     <row r="630">
-      <c r="A630" s="18"/>
+      <c r="A630" s="19"/>
     </row>
     <row r="631">
-      <c r="A631" s="18"/>
+      <c r="A631" s="19"/>
     </row>
     <row r="632">
-      <c r="A632" s="18"/>
+      <c r="A632" s="19"/>
     </row>
     <row r="633">
-      <c r="A633" s="18"/>
+      <c r="A633" s="19"/>
     </row>
     <row r="634">
-      <c r="A634" s="18"/>
+      <c r="A634" s="19"/>
     </row>
     <row r="635">
-      <c r="A635" s="18"/>
+      <c r="A635" s="19"/>
     </row>
     <row r="636">
-      <c r="A636" s="18"/>
+      <c r="A636" s="19"/>
     </row>
     <row r="637">
-      <c r="A637" s="18"/>
+      <c r="A637" s="19"/>
     </row>
     <row r="638">
-      <c r="A638" s="18"/>
+      <c r="A638" s="19"/>
     </row>
     <row r="639">
-      <c r="A639" s="18"/>
+      <c r="A639" s="19"/>
     </row>
     <row r="640">
-      <c r="A640" s="18"/>
+      <c r="A640" s="19"/>
     </row>
     <row r="641">
-      <c r="A641" s="18"/>
+      <c r="A641" s="19"/>
     </row>
     <row r="642">
-      <c r="A642" s="18"/>
+      <c r="A642" s="19"/>
     </row>
     <row r="643">
-      <c r="A643" s="18"/>
+      <c r="A643" s="19"/>
     </row>
     <row r="644">
-      <c r="A644" s="18"/>
+      <c r="A644" s="19"/>
     </row>
     <row r="645">
-      <c r="A645" s="18"/>
+      <c r="A645" s="19"/>
     </row>
     <row r="646">
-      <c r="A646" s="18"/>
+      <c r="A646" s="19"/>
     </row>
     <row r="647">
-      <c r="A647" s="18"/>
+      <c r="A647" s="19"/>
     </row>
     <row r="648">
-      <c r="A648" s="18"/>
+      <c r="A648" s="19"/>
     </row>
     <row r="649">
-      <c r="A649" s="18"/>
+      <c r="A649" s="19"/>
     </row>
     <row r="650">
-      <c r="A650" s="18"/>
+      <c r="A650" s="19"/>
     </row>
     <row r="651">
-      <c r="A651" s="18"/>
+      <c r="A651" s="19"/>
     </row>
     <row r="652">
-      <c r="A652" s="18"/>
+      <c r="A652" s="19"/>
     </row>
     <row r="653">
-      <c r="A653" s="18"/>
+      <c r="A653" s="19"/>
     </row>
     <row r="654">
-      <c r="A654" s="18"/>
+      <c r="A654" s="19"/>
     </row>
     <row r="655">
-      <c r="A655" s="18"/>
+      <c r="A655" s="19"/>
     </row>
     <row r="656">
-      <c r="A656" s="18"/>
+      <c r="A656" s="19"/>
     </row>
     <row r="657">
-      <c r="A657" s="18"/>
+      <c r="A657" s="19"/>
     </row>
     <row r="658">
-      <c r="A658" s="18"/>
+      <c r="A658" s="19"/>
     </row>
     <row r="659">
-      <c r="A659" s="18"/>
+      <c r="A659" s="19"/>
     </row>
     <row r="660">
-      <c r="A660" s="18"/>
+      <c r="A660" s="19"/>
     </row>
     <row r="661">
-      <c r="A661" s="18"/>
+      <c r="A661" s="19"/>
     </row>
     <row r="662">
-      <c r="A662" s="18"/>
+      <c r="A662" s="19"/>
     </row>
     <row r="663">
-      <c r="A663" s="18"/>
+      <c r="A663" s="19"/>
     </row>
     <row r="664">
-      <c r="A664" s="18"/>
+      <c r="A664" s="19"/>
     </row>
     <row r="665">
-      <c r="A665" s="18"/>
+      <c r="A665" s="19"/>
     </row>
     <row r="666">
-      <c r="A666" s="18"/>
+      <c r="A666" s="19"/>
     </row>
     <row r="667">
-      <c r="A667" s="18"/>
+      <c r="A667" s="19"/>
     </row>
     <row r="668">
-      <c r="A668" s="18"/>
+      <c r="A668" s="19"/>
     </row>
     <row r="669">
-      <c r="A669" s="18"/>
+      <c r="A669" s="19"/>
     </row>
     <row r="670">
-      <c r="A670" s="18"/>
+      <c r="A670" s="19"/>
     </row>
     <row r="671">
-      <c r="A671" s="18"/>
+      <c r="A671" s="19"/>
     </row>
     <row r="672">
-      <c r="A672" s="18"/>
+      <c r="A672" s="19"/>
     </row>
     <row r="673">
-      <c r="A673" s="18"/>
+      <c r="A673" s="19"/>
     </row>
     <row r="674">
-      <c r="A674" s="18"/>
+      <c r="A674" s="19"/>
     </row>
     <row r="675">
-      <c r="A675" s="18"/>
+      <c r="A675" s="19"/>
     </row>
     <row r="676">
-      <c r="A676" s="18"/>
+      <c r="A676" s="19"/>
     </row>
     <row r="677">
-      <c r="A677" s="18"/>
+      <c r="A677" s="19"/>
     </row>
     <row r="678">
-      <c r="A678" s="18"/>
+      <c r="A678" s="19"/>
     </row>
     <row r="679">
-      <c r="A679" s="18"/>
+      <c r="A679" s="19"/>
     </row>
     <row r="680">
-      <c r="A680" s="18"/>
+      <c r="A680" s="19"/>
     </row>
     <row r="681">
-      <c r="A681" s="18"/>
+      <c r="A681" s="19"/>
     </row>
     <row r="682">
-      <c r="A682" s="18"/>
+      <c r="A682" s="19"/>
     </row>
     <row r="683">
-      <c r="A683" s="18"/>
+      <c r="A683" s="19"/>
     </row>
     <row r="684">
-      <c r="A684" s="18"/>
+      <c r="A684" s="19"/>
     </row>
     <row r="685">
-      <c r="A685" s="18"/>
+      <c r="A685" s="19"/>
     </row>
     <row r="686">
-      <c r="A686" s="18"/>
+      <c r="A686" s="19"/>
     </row>
     <row r="687">
-      <c r="A687" s="18"/>
+      <c r="A687" s="19"/>
     </row>
     <row r="688">
-      <c r="A688" s="18"/>
+      <c r="A688" s="19"/>
     </row>
     <row r="689">
-      <c r="A689" s="18"/>
+      <c r="A689" s="19"/>
     </row>
     <row r="690">
-      <c r="A690" s="18"/>
+      <c r="A690" s="19"/>
     </row>
     <row r="691">
-      <c r="A691" s="18"/>
+      <c r="A691" s="19"/>
     </row>
     <row r="692">
-      <c r="A692" s="18"/>
+      <c r="A692" s="19"/>
     </row>
     <row r="693">
-      <c r="A693" s="18"/>
+      <c r="A693" s="19"/>
     </row>
     <row r="694">
-      <c r="A694" s="18"/>
+      <c r="A694" s="19"/>
     </row>
     <row r="695">
-      <c r="A695" s="18"/>
+      <c r="A695" s="19"/>
     </row>
     <row r="696">
-      <c r="A696" s="18"/>
+      <c r="A696" s="19"/>
     </row>
     <row r="697">
-      <c r="A697" s="18"/>
+      <c r="A697" s="19"/>
     </row>
     <row r="698">
-      <c r="A698" s="18"/>
+      <c r="A698" s="19"/>
     </row>
     <row r="699">
-      <c r="A699" s="18"/>
+      <c r="A699" s="19"/>
     </row>
     <row r="700">
-      <c r="A700" s="18"/>
+      <c r="A700" s="19"/>
     </row>
     <row r="701">
-      <c r="A701" s="18"/>
+      <c r="A701" s="19"/>
     </row>
     <row r="702">
-      <c r="A702" s="18"/>
+      <c r="A702" s="19"/>
     </row>
     <row r="703">
-      <c r="A703" s="18"/>
+      <c r="A703" s="19"/>
     </row>
     <row r="704">
-      <c r="A704" s="18"/>
+      <c r="A704" s="19"/>
     </row>
     <row r="705">
-      <c r="A705" s="18"/>
+      <c r="A705" s="19"/>
     </row>
     <row r="706">
-      <c r="A706" s="18"/>
+      <c r="A706" s="19"/>
     </row>
     <row r="707">
-      <c r="A707" s="18"/>
+      <c r="A707" s="19"/>
     </row>
     <row r="708">
-      <c r="A708" s="18"/>
+      <c r="A708" s="19"/>
     </row>
     <row r="709">
-      <c r="A709" s="18"/>
+      <c r="A709" s="19"/>
     </row>
     <row r="710">
-      <c r="A710" s="18"/>
+      <c r="A710" s="19"/>
     </row>
     <row r="711">
-      <c r="A711" s="18"/>
+      <c r="A711" s="19"/>
     </row>
     <row r="712">
-      <c r="A712" s="18"/>
+      <c r="A712" s="19"/>
     </row>
     <row r="713">
-      <c r="A713" s="18"/>
+      <c r="A713" s="19"/>
     </row>
     <row r="714">
-      <c r="A714" s="18"/>
+      <c r="A714" s="19"/>
     </row>
     <row r="715">
-      <c r="A715" s="18"/>
+      <c r="A715" s="19"/>
     </row>
     <row r="716">
-      <c r="A716" s="18"/>
+      <c r="A716" s="19"/>
     </row>
     <row r="717">
-      <c r="A717" s="18"/>
+      <c r="A717" s="19"/>
     </row>
     <row r="718">
-      <c r="A718" s="18"/>
+      <c r="A718" s="19"/>
     </row>
     <row r="719">
-      <c r="A719" s="18"/>
+      <c r="A719" s="19"/>
     </row>
     <row r="720">
-      <c r="A720" s="18"/>
+      <c r="A720" s="19"/>
     </row>
     <row r="721">
-      <c r="A721" s="18"/>
+      <c r="A721" s="19"/>
     </row>
     <row r="722">
-      <c r="A722" s="18"/>
+      <c r="A722" s="19"/>
     </row>
     <row r="723">
-      <c r="A723" s="18"/>
+      <c r="A723" s="19"/>
     </row>
     <row r="724">
-      <c r="A724" s="18"/>
+      <c r="A724" s="19"/>
     </row>
     <row r="725">
-      <c r="A725" s="18"/>
+      <c r="A725" s="19"/>
     </row>
     <row r="726">
-      <c r="A726" s="18"/>
+      <c r="A726" s="19"/>
     </row>
     <row r="727">
-      <c r="A727" s="18"/>
+      <c r="A727" s="19"/>
     </row>
     <row r="728">
-      <c r="A728" s="18"/>
+      <c r="A728" s="19"/>
     </row>
     <row r="729">
-      <c r="A729" s="18"/>
+      <c r="A729" s="19"/>
     </row>
     <row r="730">
-      <c r="A730" s="18"/>
+      <c r="A730" s="19"/>
     </row>
     <row r="731">
-      <c r="A731" s="18"/>
+      <c r="A731" s="19"/>
     </row>
     <row r="732">
-      <c r="A732" s="18"/>
+      <c r="A732" s="19"/>
     </row>
     <row r="733">
-      <c r="A733" s="18"/>
+      <c r="A733" s="19"/>
     </row>
     <row r="734">
-      <c r="A734" s="18"/>
+      <c r="A734" s="19"/>
     </row>
     <row r="735">
-      <c r="A735" s="18"/>
+      <c r="A735" s="19"/>
     </row>
     <row r="736">
-      <c r="A736" s="18"/>
+      <c r="A736" s="19"/>
     </row>
     <row r="737">
-      <c r="A737" s="18"/>
+      <c r="A737" s="19"/>
     </row>
     <row r="738">
-      <c r="A738" s="18"/>
+      <c r="A738" s="19"/>
     </row>
     <row r="739">
-      <c r="A739" s="18"/>
+      <c r="A739" s="19"/>
     </row>
     <row r="740">
-      <c r="A740" s="18"/>
+      <c r="A740" s="19"/>
     </row>
     <row r="741">
-      <c r="A741" s="18"/>
+      <c r="A741" s="19"/>
     </row>
     <row r="742">
-      <c r="A742" s="18"/>
+      <c r="A742" s="19"/>
     </row>
     <row r="743">
-      <c r="A743" s="18"/>
+      <c r="A743" s="19"/>
     </row>
     <row r="744">
-      <c r="A744" s="18"/>
+      <c r="A744" s="19"/>
     </row>
     <row r="745">
-      <c r="A745" s="18"/>
+      <c r="A745" s="19"/>
     </row>
     <row r="746">
-      <c r="A746" s="18"/>
+      <c r="A746" s="19"/>
     </row>
     <row r="747">
-      <c r="A747" s="18"/>
+      <c r="A747" s="19"/>
     </row>
     <row r="748">
-      <c r="A748" s="18"/>
+      <c r="A748" s="19"/>
     </row>
     <row r="749">
-      <c r="A749" s="18"/>
+      <c r="A749" s="19"/>
     </row>
     <row r="750">
-      <c r="A750" s="18"/>
+      <c r="A750" s="19"/>
     </row>
     <row r="751">
-      <c r="A751" s="18"/>
+      <c r="A751" s="19"/>
     </row>
     <row r="752">
-      <c r="A752" s="18"/>
+      <c r="A752" s="19"/>
     </row>
     <row r="753">
-      <c r="A753" s="18"/>
+      <c r="A753" s="19"/>
     </row>
     <row r="754">
-      <c r="A754" s="18"/>
+      <c r="A754" s="19"/>
     </row>
     <row r="755">
-      <c r="A755" s="18"/>
+      <c r="A755" s="19"/>
     </row>
     <row r="756">
-      <c r="A756" s="18"/>
+      <c r="A756" s="19"/>
     </row>
     <row r="757">
-      <c r="A757" s="18"/>
+      <c r="A757" s="19"/>
     </row>
     <row r="758">
-      <c r="A758" s="18"/>
+      <c r="A758" s="19"/>
     </row>
     <row r="759">
-      <c r="A759" s="18"/>
+      <c r="A759" s="19"/>
     </row>
     <row r="760">
-      <c r="A760" s="18"/>
+      <c r="A760" s="19"/>
     </row>
     <row r="761">
-      <c r="A761" s="18"/>
+      <c r="A761" s="19"/>
     </row>
     <row r="762">
-      <c r="A762" s="18"/>
+      <c r="A762" s="19"/>
     </row>
     <row r="763">
-      <c r="A763" s="18"/>
+      <c r="A763" s="19"/>
     </row>
     <row r="764">
-      <c r="A764" s="18"/>
+      <c r="A764" s="19"/>
     </row>
     <row r="765">
-      <c r="A765" s="18"/>
+      <c r="A765" s="19"/>
     </row>
     <row r="766">
-      <c r="A766" s="18"/>
+      <c r="A766" s="19"/>
     </row>
     <row r="767">
-      <c r="A767" s="18"/>
+      <c r="A767" s="19"/>
     </row>
     <row r="768">
-      <c r="A768" s="18"/>
+      <c r="A768" s="19"/>
     </row>
     <row r="769">
-      <c r="A769" s="18"/>
+      <c r="A769" s="19"/>
     </row>
     <row r="770">
-      <c r="A770" s="18"/>
+      <c r="A770" s="19"/>
     </row>
     <row r="771">
-      <c r="A771" s="18"/>
+      <c r="A771" s="19"/>
     </row>
     <row r="772">
-      <c r="A772" s="18"/>
+      <c r="A772" s="19"/>
     </row>
     <row r="773">
-      <c r="A773" s="18"/>
+      <c r="A773" s="19"/>
     </row>
     <row r="774">
-      <c r="A774" s="18"/>
+      <c r="A774" s="19"/>
     </row>
     <row r="775">
-      <c r="A775" s="18"/>
+      <c r="A775" s="19"/>
     </row>
     <row r="776">
-      <c r="A776" s="18"/>
+      <c r="A776" s="19"/>
     </row>
     <row r="777">
-      <c r="A777" s="18"/>
+      <c r="A777" s="19"/>
     </row>
     <row r="778">
-      <c r="A778" s="18"/>
+      <c r="A778" s="19"/>
     </row>
     <row r="779">
-      <c r="A779" s="18"/>
+      <c r="A779" s="19"/>
     </row>
     <row r="780">
-      <c r="A780" s="18"/>
+      <c r="A780" s="19"/>
     </row>
     <row r="781">
-      <c r="A781" s="18"/>
+      <c r="A781" s="19"/>
     </row>
     <row r="782">
-      <c r="A782" s="18"/>
+      <c r="A782" s="19"/>
     </row>
     <row r="783">
-      <c r="A783" s="18"/>
+      <c r="A783" s="19"/>
     </row>
     <row r="784">
-      <c r="A784" s="18"/>
+      <c r="A784" s="19"/>
     </row>
     <row r="785">
-      <c r="A785" s="18"/>
+      <c r="A785" s="19"/>
     </row>
     <row r="786">
-      <c r="A786" s="18"/>
+      <c r="A786" s="19"/>
     </row>
     <row r="787">
-      <c r="A787" s="18"/>
+      <c r="A787" s="19"/>
     </row>
     <row r="788">
-      <c r="A788" s="18"/>
+      <c r="A788" s="19"/>
     </row>
     <row r="789">
-      <c r="A789" s="18"/>
+      <c r="A789" s="19"/>
     </row>
     <row r="790">
-      <c r="A790" s="18"/>
+      <c r="A790" s="19"/>
     </row>
     <row r="791">
-      <c r="A791" s="18"/>
+      <c r="A791" s="19"/>
     </row>
     <row r="792">
-      <c r="A792" s="18"/>
+      <c r="A792" s="19"/>
     </row>
     <row r="793">
-      <c r="A793" s="18"/>
+      <c r="A793" s="19"/>
     </row>
     <row r="794">
-      <c r="A794" s="18"/>
+      <c r="A794" s="19"/>
     </row>
     <row r="795">
-      <c r="A795" s="18"/>
+      <c r="A795" s="19"/>
     </row>
     <row r="796">
-      <c r="A796" s="18"/>
+      <c r="A796" s="19"/>
     </row>
     <row r="797">
-      <c r="A797" s="18"/>
+      <c r="A797" s="19"/>
     </row>
     <row r="798">
-      <c r="A798" s="18"/>
+      <c r="A798" s="19"/>
     </row>
     <row r="799">
-      <c r="A799" s="18"/>
+      <c r="A799" s="19"/>
     </row>
     <row r="800">
-      <c r="A800" s="18"/>
+      <c r="A800" s="19"/>
     </row>
     <row r="801">
-      <c r="A801" s="18"/>
+      <c r="A801" s="19"/>
     </row>
     <row r="802">
-      <c r="A802" s="18"/>
+      <c r="A802" s="19"/>
     </row>
     <row r="803">
-      <c r="A803" s="18"/>
+      <c r="A803" s="19"/>
     </row>
     <row r="804">
-      <c r="A804" s="18"/>
+      <c r="A804" s="19"/>
     </row>
     <row r="805">
-      <c r="A805" s="18"/>
+      <c r="A805" s="19"/>
     </row>
     <row r="806">
-      <c r="A806" s="18"/>
+      <c r="A806" s="19"/>
     </row>
     <row r="807">
-      <c r="A807" s="18"/>
+      <c r="A807" s="19"/>
     </row>
     <row r="808">
-      <c r="A808" s="18"/>
+      <c r="A808" s="19"/>
     </row>
     <row r="809">
-      <c r="A809" s="18"/>
+      <c r="A809" s="19"/>
     </row>
     <row r="810">
-      <c r="A810" s="18"/>
+      <c r="A810" s="19"/>
     </row>
     <row r="811">
-      <c r="A811" s="18"/>
+      <c r="A811" s="19"/>
     </row>
     <row r="812">
-      <c r="A812" s="18"/>
+      <c r="A812" s="19"/>
     </row>
     <row r="813">
-      <c r="A813" s="18"/>
+      <c r="A813" s="19"/>
     </row>
     <row r="814">
-      <c r="A814" s="18"/>
+      <c r="A814" s="19"/>
     </row>
     <row r="815">
-      <c r="A815" s="18"/>
+      <c r="A815" s="19"/>
     </row>
     <row r="816">
-      <c r="A816" s="18"/>
+      <c r="A816" s="19"/>
     </row>
     <row r="817">
-      <c r="A817" s="18"/>
+      <c r="A817" s="19"/>
     </row>
     <row r="818">
-      <c r="A818" s="18"/>
+      <c r="A818" s="19"/>
     </row>
     <row r="819">
-      <c r="A819" s="18"/>
+      <c r="A819" s="19"/>
     </row>
     <row r="820">
-      <c r="A820" s="18"/>
+      <c r="A820" s="19"/>
     </row>
     <row r="821">
-      <c r="A821" s="18"/>
+      <c r="A821" s="19"/>
     </row>
     <row r="822">
-      <c r="A822" s="18"/>
+      <c r="A822" s="19"/>
     </row>
     <row r="823">
-      <c r="A823" s="18"/>
+      <c r="A823" s="19"/>
     </row>
     <row r="824">
-      <c r="A824" s="18"/>
+      <c r="A824" s="19"/>
     </row>
     <row r="825">
-      <c r="A825" s="18"/>
+      <c r="A825" s="19"/>
     </row>
     <row r="826">
-      <c r="A826" s="18"/>
+      <c r="A826" s="19"/>
     </row>
     <row r="827">
-      <c r="A827" s="18"/>
+      <c r="A827" s="19"/>
     </row>
     <row r="828">
-      <c r="A828" s="18"/>
+      <c r="A828" s="19"/>
     </row>
     <row r="829">
-      <c r="A829" s="18"/>
+      <c r="A829" s="19"/>
     </row>
     <row r="830">
-      <c r="A830" s="18"/>
+      <c r="A830" s="19"/>
     </row>
     <row r="831">
-      <c r="A831" s="18"/>
+      <c r="A831" s="19"/>
     </row>
     <row r="832">
-      <c r="A832" s="18"/>
+      <c r="A832" s="19"/>
     </row>
     <row r="833">
-      <c r="A833" s="18"/>
+      <c r="A833" s="19"/>
     </row>
     <row r="834">
-      <c r="A834" s="18"/>
+      <c r="A834" s="19"/>
     </row>
     <row r="835">
-      <c r="A835" s="18"/>
+      <c r="A835" s="19"/>
     </row>
     <row r="836">
-      <c r="A836" s="18"/>
+      <c r="A836" s="19"/>
     </row>
     <row r="837">
-      <c r="A837" s="18"/>
+      <c r="A837" s="19"/>
     </row>
     <row r="838">
-      <c r="A838" s="18"/>
+      <c r="A838" s="19"/>
     </row>
     <row r="839">
-      <c r="A839" s="18"/>
+      <c r="A839" s="19"/>
     </row>
     <row r="840">
-      <c r="A840" s="18"/>
+      <c r="A840" s="19"/>
     </row>
     <row r="841">
-      <c r="A841" s="18"/>
+      <c r="A841" s="19"/>
     </row>
     <row r="842">
-      <c r="A842" s="18"/>
+      <c r="A842" s="19"/>
     </row>
     <row r="843">
-      <c r="A843" s="18"/>
+      <c r="A843" s="19"/>
     </row>
     <row r="844">
-      <c r="A844" s="18"/>
+      <c r="A844" s="19"/>
     </row>
     <row r="845">
-      <c r="A845" s="18"/>
+      <c r="A845" s="19"/>
     </row>
     <row r="846">
-      <c r="A846" s="18"/>
+      <c r="A846" s="19"/>
     </row>
     <row r="847">
-      <c r="A847" s="18"/>
+      <c r="A847" s="19"/>
     </row>
     <row r="848">
-      <c r="A848" s="18"/>
+      <c r="A848" s="19"/>
     </row>
     <row r="849">
-      <c r="A849" s="18"/>
+      <c r="A849" s="19"/>
     </row>
     <row r="850">
-      <c r="A850" s="18"/>
+      <c r="A850" s="19"/>
     </row>
     <row r="851">
-      <c r="A851" s="18"/>
+      <c r="A851" s="19"/>
     </row>
     <row r="852">
-      <c r="A852" s="18"/>
+      <c r="A852" s="19"/>
     </row>
     <row r="853">
-      <c r="A853" s="18"/>
+      <c r="A853" s="19"/>
     </row>
     <row r="854">
-      <c r="A854" s="18"/>
+      <c r="A854" s="19"/>
     </row>
     <row r="855">
-      <c r="A855" s="18"/>
+      <c r="A855" s="19"/>
     </row>
     <row r="856">
-      <c r="A856" s="18"/>
+      <c r="A856" s="19"/>
     </row>
     <row r="857">
-      <c r="A857" s="18"/>
+      <c r="A857" s="19"/>
     </row>
     <row r="858">
-      <c r="A858" s="18"/>
+      <c r="A858" s="19"/>
     </row>
     <row r="859">
-      <c r="A859" s="18"/>
+      <c r="A859" s="19"/>
     </row>
     <row r="860">
-      <c r="A860" s="18"/>
+      <c r="A860" s="19"/>
     </row>
     <row r="861">
-      <c r="A861" s="18"/>
+      <c r="A861" s="19"/>
     </row>
     <row r="862">
-      <c r="A862" s="18"/>
+      <c r="A862" s="19"/>
     </row>
     <row r="863">
-      <c r="A863" s="18"/>
+      <c r="A863" s="19"/>
     </row>
     <row r="864">
-      <c r="A864" s="18"/>
+      <c r="A864" s="19"/>
     </row>
     <row r="865">
-      <c r="A865" s="18"/>
+      <c r="A865" s="19"/>
     </row>
     <row r="866">
-      <c r="A866" s="18"/>
+      <c r="A866" s="19"/>
     </row>
     <row r="867">
-      <c r="A867" s="18"/>
+      <c r="A867" s="19"/>
     </row>
     <row r="868">
-      <c r="A868" s="18"/>
+      <c r="A868" s="19"/>
     </row>
     <row r="869">
-      <c r="A869" s="18"/>
+      <c r="A869" s="19"/>
     </row>
     <row r="870">
-      <c r="A870" s="18"/>
+      <c r="A870" s="19"/>
     </row>
     <row r="871">
-      <c r="A871" s="18"/>
+      <c r="A871" s="19"/>
     </row>
     <row r="872">
-      <c r="A872" s="18"/>
+      <c r="A872" s="19"/>
     </row>
     <row r="873">
-      <c r="A873" s="18"/>
+      <c r="A873" s="19"/>
     </row>
     <row r="874">
-      <c r="A874" s="18"/>
+      <c r="A874" s="19"/>
     </row>
     <row r="875">
-      <c r="A875" s="18"/>
+      <c r="A875" s="19"/>
     </row>
     <row r="876">
-      <c r="A876" s="18"/>
+      <c r="A876" s="19"/>
     </row>
     <row r="877">
-      <c r="A877" s="18"/>
+      <c r="A877" s="19"/>
     </row>
     <row r="878">
-      <c r="A878" s="18"/>
+      <c r="A878" s="19"/>
     </row>
     <row r="879">
-      <c r="A879" s="18"/>
+      <c r="A879" s="19"/>
     </row>
     <row r="880">
-      <c r="A880" s="18"/>
+      <c r="A880" s="19"/>
     </row>
     <row r="881">
-      <c r="A881" s="18"/>
+      <c r="A881" s="19"/>
     </row>
     <row r="882">
-      <c r="A882" s="18"/>
+      <c r="A882" s="19"/>
     </row>
     <row r="883">
-      <c r="A883" s="18"/>
+      <c r="A883" s="19"/>
     </row>
     <row r="884">
-      <c r="A884" s="18"/>
+      <c r="A884" s="19"/>
     </row>
     <row r="885">
-      <c r="A885" s="18"/>
+      <c r="A885" s="19"/>
     </row>
     <row r="886">
-      <c r="A886" s="18"/>
+      <c r="A886" s="19"/>
     </row>
     <row r="887">
-      <c r="A887" s="18"/>
+      <c r="A887" s="19"/>
     </row>
     <row r="888">
-      <c r="A888" s="18"/>
+      <c r="A888" s="19"/>
     </row>
     <row r="889">
-      <c r="A889" s="18"/>
+      <c r="A889" s="19"/>
     </row>
     <row r="890">
-      <c r="A890" s="18"/>
+      <c r="A890" s="19"/>
     </row>
     <row r="891">
-      <c r="A891" s="18"/>
+      <c r="A891" s="19"/>
     </row>
     <row r="892">
-      <c r="A892" s="18"/>
+      <c r="A892" s="19"/>
     </row>
     <row r="893">
-      <c r="A893" s="18"/>
+      <c r="A893" s="19"/>
     </row>
     <row r="894">
-      <c r="A894" s="18"/>
+      <c r="A894" s="19"/>
     </row>
     <row r="895">
-      <c r="A895" s="18"/>
+      <c r="A895" s="19"/>
     </row>
     <row r="896">
-      <c r="A896" s="18"/>
+      <c r="A896" s="19"/>
     </row>
     <row r="897">
-      <c r="A897" s="18"/>
+      <c r="A897" s="19"/>
     </row>
     <row r="898">
-      <c r="A898" s="18"/>
+      <c r="A898" s="19"/>
     </row>
     <row r="899">
-      <c r="A899" s="18"/>
+      <c r="A899" s="19"/>
     </row>
     <row r="900">
-      <c r="A900" s="18"/>
+      <c r="A900" s="19"/>
     </row>
     <row r="901">
-      <c r="A901" s="18"/>
+      <c r="A901" s="19"/>
     </row>
     <row r="902">
-      <c r="A902" s="18"/>
+      <c r="A902" s="19"/>
     </row>
     <row r="903">
-      <c r="A903" s="18"/>
+      <c r="A903" s="19"/>
     </row>
     <row r="904">
-      <c r="A904" s="18"/>
+      <c r="A904" s="19"/>
     </row>
     <row r="905">
-      <c r="A905" s="18"/>
+      <c r="A905" s="19"/>
     </row>
     <row r="906">
-      <c r="A906" s="18"/>
+      <c r="A906" s="19"/>
     </row>
     <row r="907">
-      <c r="A907" s="18"/>
+      <c r="A907" s="19"/>
     </row>
     <row r="908">
-      <c r="A908" s="18"/>
+      <c r="A908" s="19"/>
     </row>
     <row r="909">
-      <c r="A909" s="18"/>
+      <c r="A909" s="19"/>
     </row>
     <row r="910">
-      <c r="A910" s="18"/>
+      <c r="A910" s="19"/>
     </row>
     <row r="911">
-      <c r="A911" s="18"/>
+      <c r="A911" s="19"/>
     </row>
     <row r="912">
-      <c r="A912" s="18"/>
+      <c r="A912" s="19"/>
     </row>
     <row r="913">
-      <c r="A913" s="18"/>
+      <c r="A913" s="19"/>
     </row>
     <row r="914">
-      <c r="A914" s="18"/>
+      <c r="A914" s="19"/>
     </row>
     <row r="915">
-      <c r="A915" s="18"/>
+      <c r="A915" s="19"/>
     </row>
     <row r="916">
-      <c r="A916" s="18"/>
+      <c r="A916" s="19"/>
     </row>
     <row r="917">
-      <c r="A917" s="18"/>
+      <c r="A917" s="19"/>
     </row>
     <row r="918">
-      <c r="A918" s="18"/>
+      <c r="A918" s="19"/>
     </row>
     <row r="919">
-      <c r="A919" s="18"/>
+      <c r="A919" s="19"/>
     </row>
     <row r="920">
-      <c r="A920" s="18"/>
+      <c r="A920" s="19"/>
     </row>
     <row r="921">
-      <c r="A921" s="18"/>
+      <c r="A921" s="19"/>
     </row>
     <row r="922">
-      <c r="A922" s="18"/>
+      <c r="A922" s="19"/>
     </row>
     <row r="923">
-      <c r="A923" s="18"/>
+      <c r="A923" s="19"/>
     </row>
     <row r="924">
-      <c r="A924" s="18"/>
+      <c r="A924" s="19"/>
     </row>
     <row r="925">
-      <c r="A925" s="18"/>
+      <c r="A925" s="19"/>
     </row>
     <row r="926">
-      <c r="A926" s="18"/>
+      <c r="A926" s="19"/>
     </row>
     <row r="927">
-      <c r="A927" s="18"/>
+      <c r="A927" s="19"/>
     </row>
     <row r="928">
-      <c r="A928" s="18"/>
+      <c r="A928" s="19"/>
     </row>
     <row r="929">
-      <c r="A929" s="18"/>
+      <c r="A929" s="19"/>
     </row>
     <row r="930">
-      <c r="A930" s="18"/>
+      <c r="A930" s="19"/>
     </row>
     <row r="931">
-      <c r="A931" s="18"/>
+      <c r="A931" s="19"/>
     </row>
     <row r="932">
-      <c r="A932" s="18"/>
+      <c r="A932" s="19"/>
     </row>
     <row r="933">
-      <c r="A933" s="18"/>
+      <c r="A933" s="19"/>
     </row>
     <row r="934">
-      <c r="A934" s="18"/>
+      <c r="A934" s="19"/>
     </row>
     <row r="935">
-      <c r="A935" s="18"/>
+      <c r="A935" s="19"/>
     </row>
     <row r="936">
-      <c r="A936" s="18"/>
+      <c r="A936" s="19"/>
     </row>
     <row r="937">
-      <c r="A937" s="18"/>
+      <c r="A937" s="19"/>
     </row>
     <row r="938">
-      <c r="A938" s="18"/>
+      <c r="A938" s="19"/>
     </row>
     <row r="939">
-      <c r="A939" s="18"/>
+      <c r="A939" s="19"/>
     </row>
     <row r="940">
-      <c r="A940" s="18"/>
+      <c r="A940" s="19"/>
     </row>
     <row r="941">
-      <c r="A941" s="18"/>
+      <c r="A941" s="19"/>
     </row>
     <row r="942">
-      <c r="A942" s="18"/>
+      <c r="A942" s="19"/>
     </row>
     <row r="943">
-      <c r="A943" s="18"/>
+      <c r="A943" s="19"/>
     </row>
     <row r="944">
-      <c r="A944" s="18"/>
+      <c r="A944" s="19"/>
     </row>
     <row r="945">
-      <c r="A945" s="18"/>
+      <c r="A945" s="19"/>
     </row>
     <row r="946">
-      <c r="A946" s="18"/>
+      <c r="A946" s="19"/>
     </row>
     <row r="947">
-      <c r="A947" s="18"/>
+      <c r="A947" s="19"/>
     </row>
     <row r="948">
-      <c r="A948" s="18"/>
+      <c r="A948" s="19"/>
     </row>
     <row r="949">
-      <c r="A949" s="18"/>
+      <c r="A949" s="19"/>
     </row>
     <row r="950">
-      <c r="A950" s="18"/>
+      <c r="A950" s="19"/>
     </row>
     <row r="951">
-      <c r="A951" s="18"/>
+      <c r="A951" s="19"/>
     </row>
     <row r="952">
-      <c r="A952" s="18"/>
+      <c r="A952" s="19"/>
     </row>
     <row r="953">
-      <c r="A953" s="18"/>
+      <c r="A953" s="19"/>
     </row>
     <row r="954">
-      <c r="A954" s="18"/>
+      <c r="A954" s="19"/>
     </row>
     <row r="955">
-      <c r="A955" s="18"/>
+      <c r="A955" s="19"/>
     </row>
     <row r="956">
-      <c r="A956" s="18"/>
+      <c r="A956" s="19"/>
     </row>
     <row r="957">
-      <c r="A957" s="18"/>
+      <c r="A957" s="19"/>
     </row>
     <row r="958">
-      <c r="A958" s="18"/>
+      <c r="A958" s="19"/>
     </row>
     <row r="959">
-      <c r="A959" s="18"/>
+      <c r="A959" s="19"/>
     </row>
     <row r="960">
-      <c r="A960" s="18"/>
+      <c r="A960" s="19"/>
     </row>
     <row r="961">
-      <c r="A961" s="18"/>
+      <c r="A961" s="19"/>
     </row>
     <row r="962">
-      <c r="A962" s="18"/>
+      <c r="A962" s="19"/>
     </row>
     <row r="963">
-      <c r="A963" s="18"/>
+      <c r="A963" s="19"/>
     </row>
     <row r="964">
-      <c r="A964" s="18"/>
+      <c r="A964" s="19"/>
     </row>
     <row r="965">
-      <c r="A965" s="18"/>
+      <c r="A965" s="19"/>
     </row>
     <row r="966">
-      <c r="A966" s="18"/>
+      <c r="A966" s="19"/>
     </row>
     <row r="967">
-      <c r="A967" s="18"/>
+      <c r="A967" s="19"/>
     </row>
     <row r="968">
-      <c r="A968" s="18"/>
+      <c r="A968" s="19"/>
     </row>
     <row r="969">
-      <c r="A969" s="18"/>
+      <c r="A969" s="19"/>
     </row>
     <row r="970">
-      <c r="A970" s="18"/>
+      <c r="A970" s="19"/>
     </row>
     <row r="971">
-      <c r="A971" s="18"/>
+      <c r="A971" s="19"/>
     </row>
     <row r="972">
-      <c r="A972" s="18"/>
+      <c r="A972" s="19"/>
     </row>
     <row r="973">
-      <c r="A973" s="18"/>
+      <c r="A973" s="19"/>
     </row>
     <row r="974">
-      <c r="A974" s="18"/>
+      <c r="A974" s="19"/>
     </row>
     <row r="975">
-      <c r="A975" s="18"/>
+      <c r="A975" s="19"/>
     </row>
     <row r="976">
-      <c r="A976" s="18"/>
+      <c r="A976" s="19"/>
     </row>
     <row r="977">
-      <c r="A977" s="18"/>
+      <c r="A977" s="19"/>
     </row>
     <row r="978">
-      <c r="A978" s="18"/>
+      <c r="A978" s="19"/>
     </row>
     <row r="979">
-      <c r="A979" s="18"/>
+      <c r="A979" s="19"/>
     </row>
     <row r="980">
-      <c r="A980" s="18"/>
+      <c r="A980" s="19"/>
     </row>
     <row r="981">
-      <c r="A981" s="18"/>
+      <c r="A981" s="19"/>
     </row>
     <row r="982">
-      <c r="A982" s="18"/>
+      <c r="A982" s="19"/>
     </row>
     <row r="983">
-      <c r="A983" s="18"/>
+      <c r="A983" s="19"/>
     </row>
     <row r="984">
-      <c r="A984" s="18"/>
+      <c r="A984" s="19"/>
     </row>
     <row r="985">
-      <c r="A985" s="18"/>
+      <c r="A985" s="19"/>
     </row>
     <row r="986">
-      <c r="A986" s="18"/>
+      <c r="A986" s="19"/>
     </row>
     <row r="987">
-      <c r="A987" s="18"/>
+      <c r="A987" s="19"/>
     </row>
     <row r="988">
-      <c r="A988" s="18"/>
+      <c r="A988" s="19"/>
     </row>
     <row r="989">
-      <c r="A989" s="18"/>
+      <c r="A989" s="19"/>
     </row>
     <row r="990">
-      <c r="A990" s="18"/>
+      <c r="A990" s="19"/>
     </row>
     <row r="991">
-      <c r="A991" s="18"/>
+      <c r="A991" s="19"/>
     </row>
     <row r="992">
-      <c r="A992" s="18"/>
+      <c r="A992" s="19"/>
     </row>
     <row r="993">
-      <c r="A993" s="18"/>
+      <c r="A993" s="19"/>
     </row>
     <row r="994">
-      <c r="A994" s="18"/>
+      <c r="A994" s="19"/>
     </row>
     <row r="995">
-      <c r="A995" s="18"/>
+      <c r="A995" s="19"/>
     </row>
     <row r="996">
-      <c r="A996" s="18"/>
+      <c r="A996" s="19"/>
     </row>
     <row r="997">
-      <c r="A997" s="18"/>
+      <c r="A997" s="19"/>
     </row>
     <row r="998">
-      <c r="A998" s="18"/>
+      <c r="A998" s="19"/>
     </row>
     <row r="999">
-      <c r="A999" s="18"/>
+      <c r="A999" s="19"/>
     </row>
     <row r="1000">
-      <c r="A1000" s="18"/>
+      <c r="A1000" s="19"/>
     </row>
     <row r="1001">
-      <c r="A1001" s="18"/>
+      <c r="A1001" s="19"/>
     </row>
     <row r="1002">
-      <c r="A1002" s="18"/>
+      <c r="A1002" s="19"/>
     </row>
     <row r="1003">
-      <c r="A1003" s="18"/>
+      <c r="A1003" s="19"/>
     </row>
     <row r="1004">
-      <c r="A1004" s="18"/>
+      <c r="A1004" s="19"/>
     </row>
     <row r="1005">
-      <c r="A1005" s="18"/>
+      <c r="A1005" s="19"/>
     </row>
     <row r="1006">
-      <c r="A1006" s="18"/>
+      <c r="A1006" s="19"/>
     </row>
     <row r="1007">
-      <c r="A1007" s="18"/>
+      <c r="A1007" s="19"/>
     </row>
     <row r="1008">
-      <c r="A1008" s="18"/>
+      <c r="A1008" s="19"/>
     </row>
     <row r="1009">
-      <c r="A1009" s="18"/>
+      <c r="A1009" s="19"/>
     </row>
     <row r="1010">
-      <c r="A1010" s="18"/>
+      <c r="A1010" s="19"/>
     </row>
     <row r="1011">
-      <c r="A1011" s="18"/>
+      <c r="A1011" s="19"/>
     </row>
     <row r="1012">
-      <c r="A1012" s="18"/>
+      <c r="A1012" s="19"/>
     </row>
     <row r="1013">
-      <c r="A1013" s="18"/>
+      <c r="A1013" s="19"/>
     </row>
     <row r="1014">
-      <c r="A1014" s="18"/>
+      <c r="A1014" s="19"/>
     </row>
     <row r="1015">
-      <c r="A1015" s="18"/>
+      <c r="A1015" s="19"/>
     </row>
     <row r="1016">
-      <c r="A1016" s="18"/>
+      <c r="A1016" s="19"/>
     </row>
     <row r="1017">
-      <c r="A1017" s="18"/>
+      <c r="A1017" s="19"/>
     </row>
     <row r="1018">
-      <c r="A1018" s="18"/>
+      <c r="A1018" s="19"/>
     </row>
     <row r="1019">
-      <c r="A1019" s="18"/>
+      <c r="A1019" s="19"/>
     </row>
     <row r="1020">
-      <c r="A1020" s="18"/>
+      <c r="A1020" s="19"/>
     </row>
     <row r="1021">
-      <c r="A1021" s="18"/>
+      <c r="A1021" s="19"/>
     </row>
     <row r="1022">
-      <c r="A1022" s="18"/>
+      <c r="A1022" s="19"/>
     </row>
     <row r="1023">
-      <c r="A1023" s="18"/>
+      <c r="A1023" s="19"/>
     </row>
     <row r="1024">
-      <c r="A1024" s="18"/>
+      <c r="A1024" s="19"/>
+    </row>
+    <row r="1025">
+      <c r="A1025" s="19"/>
+    </row>
+    <row r="1026">
+      <c r="A1026" s="19"/>
+    </row>
+    <row r="1027">
+      <c r="A1027" s="19"/>
+    </row>
+    <row r="1028">
+      <c r="A1028" s="19"/>
+    </row>
+    <row r="1029">
+      <c r="A1029" s="19"/>
+    </row>
+    <row r="1030">
+      <c r="A1030" s="19"/>
+    </row>
+    <row r="1031">
+      <c r="A1031" s="19"/>
+    </row>
+    <row r="1032">
+      <c r="A1032" s="19"/>
+    </row>
+    <row r="1033">
+      <c r="A1033" s="19"/>
+    </row>
+    <row r="1034">
+      <c r="A1034" s="19"/>
+    </row>
+    <row r="1035">
+      <c r="A1035" s="19"/>
+    </row>
+    <row r="1036">
+      <c r="A1036" s="19"/>
+    </row>
+    <row r="1037">
+      <c r="A1037" s="19"/>
+    </row>
+    <row r="1038">
+      <c r="A1038" s="19"/>
+    </row>
+    <row r="1039">
+      <c r="A1039" s="19"/>
+    </row>
+    <row r="1040">
+      <c r="A1040" s="19"/>
+    </row>
+    <row r="1041">
+      <c r="A1041" s="19"/>
+    </row>
+    <row r="1042">
+      <c r="A1042" s="19"/>
+    </row>
+    <row r="1043">
+      <c r="A1043" s="19"/>
+    </row>
+    <row r="1044">
+      <c r="A1044" s="19"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C3:C208">
+  <conditionalFormatting sqref="C3:C228">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Select">
       <formula>NOT(ISERROR(SEARCH(("Select"),(C3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="C3:C208">
+    <dataValidation type="list" allowBlank="1" sqref="C3:C228">
       <formula1>Functions!$A$1:$A$5</formula1>
     </dataValidation>
   </dataValidations>
@@ -6690,183 +6917,178 @@
     <hyperlink r:id="rId3" location="Meta" ref="D4"/>
     <hyperlink r:id="rId4" location="uri" ref="D5"/>
     <hyperlink r:id="rId5" location="code" ref="D6"/>
-    <hyperlink r:id="rId6" ref="E6"/>
-    <hyperlink r:id="rId7" location="Narrative" ref="D7"/>
-    <hyperlink r:id="rId8" ref="D8"/>
-    <hyperlink r:id="rId9" location="Extension" ref="D9"/>
-    <hyperlink r:id="rId10" location="identifier" ref="D10"/>
-    <hyperlink r:id="rId11" location="code" ref="D11"/>
-    <hyperlink r:id="rId12" location="codeableconcept" ref="D12"/>
-    <hyperlink r:id="rId13" ref="E12"/>
-    <hyperlink r:id="rId14" location="coding" ref="D13"/>
-    <hyperlink r:id="rId15" location="uri" ref="D14"/>
-    <hyperlink r:id="rId16" location="string" ref="D15"/>
-    <hyperlink r:id="rId17" location="code" ref="D16"/>
-    <hyperlink r:id="rId18" location="string" ref="D17"/>
-    <hyperlink r:id="rId19" location="boolean" ref="D18"/>
-    <hyperlink r:id="rId20" location="string" ref="D19"/>
-    <hyperlink r:id="rId21" location="uri" ref="D20"/>
-    <hyperlink r:id="rId22" location="string" ref="D21"/>
-    <hyperlink r:id="rId23" location="period" ref="D22"/>
-    <hyperlink r:id="rId24" location="datetime" ref="D23"/>
-    <hyperlink r:id="rId25" location="datetime" ref="D24"/>
-    <hyperlink r:id="rId26" location="string" ref="D27"/>
-    <hyperlink r:id="rId27" location="identifier" ref="D28"/>
-    <hyperlink r:id="rId28" location="string" ref="D29"/>
-    <hyperlink r:id="rId29" location="string" ref="D38"/>
-    <hyperlink r:id="rId30" location="identifier" ref="D39"/>
-    <hyperlink r:id="rId31" location="string" ref="D40"/>
-    <hyperlink r:id="rId32" location="code" ref="D41"/>
-    <hyperlink r:id="rId33" location="codeableconcept" ref="D42"/>
-    <hyperlink r:id="rId34" ref="E42"/>
-    <hyperlink r:id="rId35" location="coding" ref="D43"/>
-    <hyperlink r:id="rId36" location="uri" ref="D44"/>
-    <hyperlink r:id="rId37" location="string" ref="D45"/>
-    <hyperlink r:id="rId38" location="code" ref="D46"/>
-    <hyperlink r:id="rId39" location="string" ref="D47"/>
-    <hyperlink r:id="rId40" location="boolean" ref="D48"/>
-    <hyperlink r:id="rId41" location="string" ref="D49"/>
-    <hyperlink r:id="rId42" location="codeableconcept" ref="D50"/>
-    <hyperlink r:id="rId43" ref="E50"/>
-    <hyperlink r:id="rId44" location="coding" ref="D51"/>
-    <hyperlink r:id="rId45" location="coding" ref="D52"/>
-    <hyperlink r:id="rId46" ref="E52"/>
-    <hyperlink r:id="rId47" location="uri" ref="D54"/>
-    <hyperlink r:id="rId48" location="code" ref="D55"/>
-    <hyperlink r:id="rId49" location="string" ref="D56"/>
-    <hyperlink r:id="rId50" location="boolean" ref="D57"/>
-    <hyperlink r:id="rId51" location="string" ref="D58"/>
-    <hyperlink r:id="rId52" location="string" ref="D64"/>
-    <hyperlink r:id="rId53" location="identifier" ref="D65"/>
-    <hyperlink r:id="rId54" location="string" ref="D66"/>
-    <hyperlink r:id="rId55" location="string" ref="D70"/>
-    <hyperlink r:id="rId56" location="identifier" ref="D71"/>
-    <hyperlink r:id="rId57" location="string" ref="D72"/>
-    <hyperlink r:id="rId58" location="instant" ref="D74"/>
-    <hyperlink r:id="rId59" location="string" ref="D80"/>
-    <hyperlink r:id="rId60" location="identifier" ref="D81"/>
-    <hyperlink r:id="rId61" location="string" ref="D82"/>
-    <hyperlink r:id="rId62" location="codeableconcept" ref="D84"/>
-    <hyperlink r:id="rId63" ref="E84"/>
-    <hyperlink r:id="rId64" location="coding" ref="D85"/>
-    <hyperlink r:id="rId65" location="uri" ref="D86"/>
-    <hyperlink r:id="rId66" location="string" ref="D87"/>
-    <hyperlink r:id="rId67" location="code" ref="D88"/>
-    <hyperlink r:id="rId68" location="string" ref="D89"/>
-    <hyperlink r:id="rId69" location="boolean" ref="D90"/>
-    <hyperlink r:id="rId70" location="string" ref="D91"/>
-    <hyperlink r:id="rId71" location="codeableconcept" ref="D92"/>
-    <hyperlink r:id="rId72" ref="E92"/>
-    <hyperlink r:id="rId73" location="coding" ref="D93"/>
-    <hyperlink r:id="rId74" location="uri" ref="D94"/>
-    <hyperlink r:id="rId75" location="string" ref="D95"/>
-    <hyperlink r:id="rId76" location="code" ref="D96"/>
-    <hyperlink r:id="rId77" location="string" ref="D97"/>
-    <hyperlink r:id="rId78" location="boolean" ref="D98"/>
-    <hyperlink r:id="rId79" location="string" ref="D99"/>
-    <hyperlink r:id="rId80" location="string" ref="D100"/>
-    <hyperlink r:id="rId81" location="codeableconcept" ref="D101"/>
-    <hyperlink r:id="rId82" ref="E101"/>
-    <hyperlink r:id="rId83" location="coding" ref="D102"/>
-    <hyperlink r:id="rId84" location="coding" ref="D103"/>
-    <hyperlink r:id="rId85" location="uri" ref="D105"/>
-    <hyperlink r:id="rId86" location="code" ref="D106"/>
-    <hyperlink r:id="rId87" location="string" ref="D107"/>
-    <hyperlink r:id="rId88" location="boolean" ref="D108"/>
-    <hyperlink r:id="rId89" location="string" ref="D109"/>
-    <hyperlink r:id="rId90" location="codeableconcept" ref="D110"/>
-    <hyperlink r:id="rId91" ref="E110"/>
-    <hyperlink r:id="rId92" location="coding" ref="D111"/>
-    <hyperlink r:id="rId93" location="coding" ref="D112"/>
-    <hyperlink r:id="rId94" ref="E112"/>
-    <hyperlink r:id="rId95" location="uri" ref="D114"/>
-    <hyperlink r:id="rId96" location="code" ref="D115"/>
-    <hyperlink r:id="rId97" location="string" ref="D116"/>
-    <hyperlink r:id="rId98" location="boolean" ref="D117"/>
-    <hyperlink r:id="rId99" location="string" ref="D118"/>
-    <hyperlink r:id="rId100" location="string" ref="D121"/>
-    <hyperlink r:id="rId101" location="identifier" ref="D122"/>
-    <hyperlink r:id="rId102" location="string" ref="D123"/>
-    <hyperlink r:id="rId103" location="string" ref="D127"/>
-    <hyperlink r:id="rId104" location="identifier" ref="D128"/>
-    <hyperlink r:id="rId105" location="string" ref="D129"/>
-    <hyperlink r:id="rId106" ref="D130"/>
-    <hyperlink r:id="rId107" location="Extension" ref="D131"/>
-    <hyperlink r:id="rId108" location="decimal" ref="D133"/>
-    <hyperlink r:id="rId109" location="string" ref="D134"/>
-    <hyperlink r:id="rId110" location="uri" ref="D135"/>
-    <hyperlink r:id="rId111" location="code" ref="D136"/>
-    <hyperlink r:id="rId112" location="decimal" ref="D138"/>
-    <hyperlink r:id="rId113" location="string" ref="D139"/>
-    <hyperlink r:id="rId114" location="uri" ref="D140"/>
-    <hyperlink r:id="rId115" location="code" ref="D141"/>
-    <hyperlink r:id="rId116" location="codeableconcept" ref="D142"/>
-    <hyperlink r:id="rId117" ref="E142"/>
-    <hyperlink r:id="rId118" location="coding" ref="D143"/>
-    <hyperlink r:id="rId119" location="uri" ref="D144"/>
-    <hyperlink r:id="rId120" location="string" ref="D145"/>
-    <hyperlink r:id="rId121" location="code" ref="D146"/>
-    <hyperlink r:id="rId122" location="string" ref="D147"/>
-    <hyperlink r:id="rId123" location="boolean" ref="D148"/>
-    <hyperlink r:id="rId124" location="string" ref="D149"/>
-    <hyperlink r:id="rId125" location="codeableconcept" ref="D150"/>
-    <hyperlink r:id="rId126" ref="E150"/>
-    <hyperlink r:id="rId127" location="coding" ref="D151"/>
-    <hyperlink r:id="rId128" location="uri" ref="D152"/>
-    <hyperlink r:id="rId129" location="string" ref="D153"/>
-    <hyperlink r:id="rId130" location="code" ref="D154"/>
-    <hyperlink r:id="rId131" location="string" ref="D155"/>
-    <hyperlink r:id="rId132" location="boolean" ref="D156"/>
-    <hyperlink r:id="rId133" location="string" ref="D157"/>
-    <hyperlink r:id="rId134" location="range" ref="D158"/>
-    <hyperlink r:id="rId135" location="decimal" ref="D160"/>
-    <hyperlink r:id="rId136" location="string" ref="D161"/>
-    <hyperlink r:id="rId137" location="uri" ref="D162"/>
-    <hyperlink r:id="rId138" location="code" ref="D163"/>
-    <hyperlink r:id="rId139" location="decimal" ref="D165"/>
-    <hyperlink r:id="rId140" location="string" ref="D166"/>
-    <hyperlink r:id="rId141" location="uri" ref="D167"/>
-    <hyperlink r:id="rId142" location="code" ref="D168"/>
-    <hyperlink r:id="rId143" location="string" ref="D169"/>
-    <hyperlink r:id="rId144" ref="D170"/>
-    <hyperlink r:id="rId145" location="Extension" ref="D171"/>
-    <hyperlink r:id="rId146" location="code" ref="D172"/>
-    <hyperlink r:id="rId147" location="string" ref="D177"/>
-    <hyperlink r:id="rId148" location="identifier" ref="D178"/>
-    <hyperlink r:id="rId149" location="string" ref="D179"/>
-    <hyperlink r:id="rId150" ref="D180"/>
-    <hyperlink r:id="rId151" location="Extension" ref="D181"/>
-    <hyperlink r:id="rId152" location="codeableconcept" ref="D182"/>
-    <hyperlink r:id="rId153" ref="E182"/>
-    <hyperlink r:id="rId154" location="coding" ref="D183"/>
-    <hyperlink r:id="rId155" location="coding" ref="D184"/>
-    <hyperlink r:id="rId156" ref="E184"/>
-    <hyperlink r:id="rId157" location="uri" ref="D186"/>
-    <hyperlink r:id="rId158" location="code" ref="D187"/>
-    <hyperlink r:id="rId159" location="string" ref="D188"/>
-    <hyperlink r:id="rId160" location="boolean" ref="D189"/>
-    <hyperlink r:id="rId161" location="string" ref="D190"/>
-    <hyperlink r:id="rId162" location="codeableconcept" ref="D192"/>
-    <hyperlink r:id="rId163" ref="E192"/>
-    <hyperlink r:id="rId164" location="coding" ref="D193"/>
-    <hyperlink r:id="rId165" location="uri" ref="D194"/>
-    <hyperlink r:id="rId166" location="string" ref="D195"/>
-    <hyperlink r:id="rId167" location="code" ref="D196"/>
-    <hyperlink r:id="rId168" location="string" ref="D197"/>
-    <hyperlink r:id="rId169" location="boolean" ref="D198"/>
-    <hyperlink r:id="rId170" location="string" ref="D199"/>
-    <hyperlink r:id="rId171" location="codeableconcept" ref="D200"/>
-    <hyperlink r:id="rId172" ref="E200"/>
-    <hyperlink r:id="rId173" location="coding" ref="D201"/>
-    <hyperlink r:id="rId174" location="uri" ref="D202"/>
-    <hyperlink r:id="rId175" location="string" ref="D203"/>
-    <hyperlink r:id="rId176" location="code" ref="D204"/>
-    <hyperlink r:id="rId177" location="string" ref="D205"/>
-    <hyperlink r:id="rId178" location="boolean" ref="D206"/>
-    <hyperlink r:id="rId179" location="string" ref="D207"/>
-    <hyperlink r:id="rId180" location="Observation.referenceRange" ref="D208"/>
+    <hyperlink r:id="rId6" location="Narrative" ref="D7"/>
+    <hyperlink r:id="rId7" ref="D8"/>
+    <hyperlink r:id="rId8" location="Extension" ref="D9"/>
+    <hyperlink r:id="rId9" location="identifier" ref="D10"/>
+    <hyperlink r:id="rId10" location="code" ref="D11"/>
+    <hyperlink r:id="rId11" location="codeableconcept" ref="D12"/>
+    <hyperlink r:id="rId12" location="coding" ref="D13"/>
+    <hyperlink r:id="rId13" location="uri" ref="D14"/>
+    <hyperlink r:id="rId14" location="string" ref="D15"/>
+    <hyperlink r:id="rId15" location="code" ref="D16"/>
+    <hyperlink r:id="rId16" location="string" ref="D17"/>
+    <hyperlink r:id="rId17" location="boolean" ref="D18"/>
+    <hyperlink r:id="rId18" location="string" ref="D19"/>
+    <hyperlink r:id="rId19" location="uri" ref="D20"/>
+    <hyperlink r:id="rId20" location="string" ref="D21"/>
+    <hyperlink r:id="rId21" location="period" ref="D22"/>
+    <hyperlink r:id="rId22" location="datetime" ref="D23"/>
+    <hyperlink r:id="rId23" location="datetime" ref="D24"/>
+    <hyperlink r:id="rId24" location="string" ref="D27"/>
+    <hyperlink r:id="rId25" location="identifier" ref="D28"/>
+    <hyperlink r:id="rId26" location="string" ref="D29"/>
+    <hyperlink r:id="rId27" location="string" ref="D38"/>
+    <hyperlink r:id="rId28" location="identifier" ref="D39"/>
+    <hyperlink r:id="rId29" location="string" ref="D40"/>
+    <hyperlink r:id="rId30" location="code" ref="D41"/>
+    <hyperlink r:id="rId31" location="codeableconcept" ref="D42"/>
+    <hyperlink r:id="rId32" location="coding" ref="D43"/>
+    <hyperlink r:id="rId33" location="uri" ref="D44"/>
+    <hyperlink r:id="rId34" location="string" ref="D45"/>
+    <hyperlink r:id="rId35" location="code" ref="D46"/>
+    <hyperlink r:id="rId36" location="string" ref="D47"/>
+    <hyperlink r:id="rId37" location="boolean" ref="D48"/>
+    <hyperlink r:id="rId38" location="string" ref="D49"/>
+    <hyperlink r:id="rId39" location="codeableconcept" ref="D50"/>
+    <hyperlink r:id="rId40" location="coding" ref="D51"/>
+    <hyperlink r:id="rId41" location="coding" ref="D52"/>
+    <hyperlink r:id="rId42" location="uri" ref="D54"/>
+    <hyperlink r:id="rId43" location="code" ref="D55"/>
+    <hyperlink r:id="rId44" location="string" ref="D56"/>
+    <hyperlink r:id="rId45" location="boolean" ref="D57"/>
+    <hyperlink r:id="rId46" location="string" ref="D58"/>
+    <hyperlink r:id="rId47" location="string" ref="D64"/>
+    <hyperlink r:id="rId48" location="identifier" ref="D65"/>
+    <hyperlink r:id="rId49" location="string" ref="D66"/>
+    <hyperlink r:id="rId50" location="string" ref="D70"/>
+    <hyperlink r:id="rId51" location="identifier" ref="D71"/>
+    <hyperlink r:id="rId52" location="string" ref="D72"/>
+    <hyperlink r:id="rId53" location="datetime" ref="D73"/>
+    <hyperlink r:id="rId54" location="period" ref="D74"/>
+    <hyperlink r:id="rId55" location="instant" ref="D75"/>
+    <hyperlink r:id="rId56" location="string" ref="D81"/>
+    <hyperlink r:id="rId57" location="identifier" ref="D82"/>
+    <hyperlink r:id="rId58" location="string" ref="D83"/>
+    <hyperlink r:id="rId59" location="codeableconcept" ref="D85"/>
+    <hyperlink r:id="rId60" location="string" ref="D86"/>
+    <hyperlink r:id="rId61" location="boolean" ref="D87"/>
+    <hyperlink r:id="rId62" location="datetime" ref="D93"/>
+    <hyperlink r:id="rId63" location="period" ref="D94"/>
+    <hyperlink r:id="rId64" location="codeableconcept" ref="D95"/>
+    <hyperlink r:id="rId65" location="coding" ref="D96"/>
+    <hyperlink r:id="rId66" location="uri" ref="D97"/>
+    <hyperlink r:id="rId67" location="string" ref="D98"/>
+    <hyperlink r:id="rId68" location="code" ref="D99"/>
+    <hyperlink r:id="rId69" location="string" ref="D100"/>
+    <hyperlink r:id="rId70" location="boolean" ref="D101"/>
+    <hyperlink r:id="rId71" location="string" ref="D102"/>
+    <hyperlink r:id="rId72" location="codeableconcept" ref="D103"/>
+    <hyperlink r:id="rId73" location="coding" ref="D104"/>
+    <hyperlink r:id="rId74" location="uri" ref="D105"/>
+    <hyperlink r:id="rId75" location="string" ref="D106"/>
+    <hyperlink r:id="rId76" location="code" ref="D107"/>
+    <hyperlink r:id="rId77" location="string" ref="D108"/>
+    <hyperlink r:id="rId78" location="boolean" ref="D109"/>
+    <hyperlink r:id="rId79" location="string" ref="D110"/>
+    <hyperlink r:id="rId80" location="string" ref="D111"/>
+    <hyperlink r:id="rId81" location="codeableconcept" ref="D112"/>
+    <hyperlink r:id="rId82" location="coding" ref="D113"/>
+    <hyperlink r:id="rId83" location="coding" ref="D114"/>
+    <hyperlink r:id="rId84" location="uri" ref="D116"/>
+    <hyperlink r:id="rId85" location="code" ref="D117"/>
+    <hyperlink r:id="rId86" location="string" ref="D118"/>
+    <hyperlink r:id="rId87" location="boolean" ref="D119"/>
+    <hyperlink r:id="rId88" location="string" ref="D120"/>
+    <hyperlink r:id="rId89" location="codeableconcept" ref="D121"/>
+    <hyperlink r:id="rId90" location="coding" ref="D122"/>
+    <hyperlink r:id="rId91" location="coding" ref="D123"/>
+    <hyperlink r:id="rId92" location="uri" ref="D125"/>
+    <hyperlink r:id="rId93" location="code" ref="D126"/>
+    <hyperlink r:id="rId94" location="string" ref="D127"/>
+    <hyperlink r:id="rId95" location="boolean" ref="D128"/>
+    <hyperlink r:id="rId96" location="string" ref="D129"/>
+    <hyperlink r:id="rId97" location="string" ref="D132"/>
+    <hyperlink r:id="rId98" location="identifier" ref="D133"/>
+    <hyperlink r:id="rId99" location="string" ref="D134"/>
+    <hyperlink r:id="rId100" location="string" ref="D138"/>
+    <hyperlink r:id="rId101" location="identifier" ref="D139"/>
+    <hyperlink r:id="rId102" location="string" ref="D140"/>
+    <hyperlink r:id="rId103" ref="D141"/>
+    <hyperlink r:id="rId104" location="Extension" ref="D142"/>
+    <hyperlink r:id="rId105" location="decimal" ref="D144"/>
+    <hyperlink r:id="rId106" location="string" ref="D145"/>
+    <hyperlink r:id="rId107" location="uri" ref="D146"/>
+    <hyperlink r:id="rId108" location="code" ref="D147"/>
+    <hyperlink r:id="rId109" location="decimal" ref="D149"/>
+    <hyperlink r:id="rId110" location="string" ref="D150"/>
+    <hyperlink r:id="rId111" location="uri" ref="D151"/>
+    <hyperlink r:id="rId112" location="code" ref="D152"/>
+    <hyperlink r:id="rId113" location="codeableconcept" ref="D153"/>
+    <hyperlink r:id="rId114" location="coding" ref="D154"/>
+    <hyperlink r:id="rId115" location="uri" ref="D155"/>
+    <hyperlink r:id="rId116" location="string" ref="D156"/>
+    <hyperlink r:id="rId117" location="code" ref="D157"/>
+    <hyperlink r:id="rId118" location="string" ref="D158"/>
+    <hyperlink r:id="rId119" location="boolean" ref="D159"/>
+    <hyperlink r:id="rId120" location="string" ref="D160"/>
+    <hyperlink r:id="rId121" location="codeableconcept" ref="D161"/>
+    <hyperlink r:id="rId122" location="coding" ref="D162"/>
+    <hyperlink r:id="rId123" location="uri" ref="D163"/>
+    <hyperlink r:id="rId124" location="string" ref="D164"/>
+    <hyperlink r:id="rId125" location="code" ref="D165"/>
+    <hyperlink r:id="rId126" location="string" ref="D166"/>
+    <hyperlink r:id="rId127" location="boolean" ref="D167"/>
+    <hyperlink r:id="rId128" location="string" ref="D168"/>
+    <hyperlink r:id="rId129" location="range" ref="D169"/>
+    <hyperlink r:id="rId130" location="decimal" ref="D171"/>
+    <hyperlink r:id="rId131" location="string" ref="D172"/>
+    <hyperlink r:id="rId132" location="uri" ref="D173"/>
+    <hyperlink r:id="rId133" location="code" ref="D174"/>
+    <hyperlink r:id="rId134" location="decimal" ref="D176"/>
+    <hyperlink r:id="rId135" location="string" ref="D177"/>
+    <hyperlink r:id="rId136" location="uri" ref="D178"/>
+    <hyperlink r:id="rId137" location="code" ref="D179"/>
+    <hyperlink r:id="rId138" location="string" ref="D180"/>
+    <hyperlink r:id="rId139" ref="D181"/>
+    <hyperlink r:id="rId140" location="Extension" ref="D182"/>
+    <hyperlink r:id="rId141" location="code" ref="D183"/>
+    <hyperlink r:id="rId142" location="string" ref="D188"/>
+    <hyperlink r:id="rId143" location="identifier" ref="D189"/>
+    <hyperlink r:id="rId144" location="string" ref="D190"/>
+    <hyperlink r:id="rId145" ref="D191"/>
+    <hyperlink r:id="rId146" location="Extension" ref="D192"/>
+    <hyperlink r:id="rId147" location="codeableconcept" ref="D193"/>
+    <hyperlink r:id="rId148" location="coding" ref="D194"/>
+    <hyperlink r:id="rId149" location="coding" ref="D195"/>
+    <hyperlink r:id="rId150" location="uri" ref="D197"/>
+    <hyperlink r:id="rId151" location="code" ref="D198"/>
+    <hyperlink r:id="rId152" location="string" ref="D199"/>
+    <hyperlink r:id="rId153" location="boolean" ref="D200"/>
+    <hyperlink r:id="rId154" location="string" ref="D201"/>
+    <hyperlink r:id="rId155" location="codeableconcept" ref="D203"/>
+    <hyperlink r:id="rId156" location="string" ref="D204"/>
+    <hyperlink r:id="rId157" location="datetime" ref="D210"/>
+    <hyperlink r:id="rId158" location="period" ref="D211"/>
+    <hyperlink r:id="rId159" location="codeableconcept" ref="D212"/>
+    <hyperlink r:id="rId160" location="coding" ref="D213"/>
+    <hyperlink r:id="rId161" location="uri" ref="D214"/>
+    <hyperlink r:id="rId162" location="string" ref="D215"/>
+    <hyperlink r:id="rId163" location="code" ref="D216"/>
+    <hyperlink r:id="rId164" location="string" ref="D217"/>
+    <hyperlink r:id="rId165" location="boolean" ref="D218"/>
+    <hyperlink r:id="rId166" location="string" ref="D219"/>
+    <hyperlink r:id="rId167" location="codeableconcept" ref="D220"/>
+    <hyperlink r:id="rId168" location="coding" ref="D221"/>
+    <hyperlink r:id="rId169" location="uri" ref="D222"/>
+    <hyperlink r:id="rId170" location="string" ref="D223"/>
+    <hyperlink r:id="rId171" location="code" ref="D224"/>
+    <hyperlink r:id="rId172" location="string" ref="D225"/>
+    <hyperlink r:id="rId173" location="boolean" ref="D226"/>
+    <hyperlink r:id="rId174" location="string" ref="D227"/>
+    <hyperlink r:id="rId175" location="Observation.referenceRange" ref="D228"/>
   </hyperlinks>
-  <drawing r:id="rId181"/>
+  <drawing r:id="rId176"/>
 </worksheet>
 </file>
 
